--- a/Artefatos/17. Análise dos Eventos para cada Cenário.xlsx
+++ b/Artefatos/17. Análise dos Eventos para cada Cenário.xlsx
@@ -473,40 +473,88 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -514,15 +562,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -535,12 +574,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -559,59 +592,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -900,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36:I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -916,984 +898,968 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7" t="s">
+      <c r="K1" s="26"/>
+      <c r="L1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="38"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="19"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="39"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="20"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="21" t="s">
+      <c r="B3" s="31"/>
+      <c r="C3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="21" t="s">
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="29" t="s">
+      <c r="K3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="21" t="s">
+      <c r="L3" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="21" t="s">
+      <c r="M3" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="29" t="s">
+      <c r="N3" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="29" t="s">
+      <c r="O3" s="21" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="30"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="22"/>
     </row>
     <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3" t="s">
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="5"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="4"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
-      <c r="B6" s="40"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="7"/>
       <c r="C6" s="1">
         <v>2</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="4" t="s">
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="5"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="4"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="37"/>
-      <c r="B7" s="40"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="7"/>
       <c r="C7" s="1">
         <v>3</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="3" t="s">
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="5"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="4"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="37"/>
-      <c r="B8" s="40"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="7"/>
       <c r="C8" s="1">
         <v>4</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="3" t="s">
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="5"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="4"/>
     </row>
     <row r="9" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
-      <c r="B9" s="36" t="s">
+      <c r="A9" s="18"/>
+      <c r="B9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>5</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4" t="s">
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="O9" s="5"/>
+      <c r="O9" s="4"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="37"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="6">
+      <c r="A10" s="18"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="5">
         <v>6</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4" t="s">
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="O10" s="5"/>
+      <c r="O10" s="4"/>
     </row>
     <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="1">
         <v>7</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="D11" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="3" t="s">
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="5"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="4"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
-      <c r="B12" s="13"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="29"/>
       <c r="C12" s="1">
         <v>8</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="4" t="s">
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="5"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="4"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="35"/>
-      <c r="B13" s="13"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="29"/>
       <c r="C13" s="1">
         <v>9</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="3" t="s">
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="5"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="4"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="35"/>
-      <c r="B14" s="13"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="29"/>
       <c r="C14" s="1">
         <v>10</v>
       </c>
-      <c r="D14" s="32" t="s">
+      <c r="D14" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="4" t="s">
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="5"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="4"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="6">
+      <c r="A15" s="17"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="5">
         <v>11</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="3" t="s">
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="5"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="4"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="6">
+      <c r="A16" s="17"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="5">
         <v>12</v>
       </c>
-      <c r="D16" s="32" t="s">
+      <c r="D16" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="3" t="s">
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="5"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="4"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="35"/>
-      <c r="B17" s="14" t="s">
+      <c r="A17" s="17"/>
+      <c r="B17" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="1">
         <v>13</v>
       </c>
-      <c r="D17" s="31" t="s">
+      <c r="D17" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4" t="s">
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="O17" s="5"/>
+      <c r="O17" s="4"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
-      <c r="B18" s="15"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="13"/>
       <c r="C18" s="1">
         <v>14</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4" t="s">
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="O18" s="5"/>
+      <c r="O18" s="4"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
-      <c r="B19" s="15"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="13"/>
       <c r="C19" s="1">
         <v>15</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="D19" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4" t="s">
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="O19" s="5"/>
+      <c r="O19" s="4"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="35"/>
-      <c r="B20" s="16"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="14"/>
       <c r="C20" s="1">
         <v>16</v>
       </c>
-      <c r="D20" s="31" t="s">
+      <c r="D20" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4" t="s">
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="O20" s="5"/>
+      <c r="O20" s="4"/>
     </row>
     <row r="21" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="42" t="s">
+      <c r="A21" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="1">
         <v>17</v>
       </c>
-      <c r="D21" s="32" t="s">
+      <c r="D21" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3" t="s">
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="5"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="4"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="42"/>
-      <c r="B22" s="15"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="11"/>
       <c r="C22" s="1">
         <v>18</v>
       </c>
-      <c r="D22" s="32" t="s">
+      <c r="D22" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="4" t="s">
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="5"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="4"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="42"/>
-      <c r="B23" s="15"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="11"/>
       <c r="C23" s="1">
         <v>19</v>
       </c>
-      <c r="D23" s="32" t="s">
+      <c r="D23" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="3" t="s">
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K23" s="3"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="5"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="4"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="42"/>
-      <c r="B24" s="15"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="11"/>
       <c r="C24" s="1">
         <v>20</v>
       </c>
-      <c r="D24" s="32" t="s">
+      <c r="D24" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="3" t="s">
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K24" s="3"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="5"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="4"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="42"/>
-      <c r="B25" s="15"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="11"/>
       <c r="C25" s="1">
         <v>21</v>
       </c>
-      <c r="D25" s="32" t="s">
+      <c r="D25" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="3" t="s">
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K25" s="3"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="5"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="4"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="42"/>
-      <c r="B26" s="16"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="11"/>
       <c r="C26" s="1">
         <v>22</v>
       </c>
-      <c r="D26" s="32" t="s">
+      <c r="D26" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="4" t="s">
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="5"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="4"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="42"/>
-      <c r="B27" s="36" t="s">
+      <c r="A27" s="15"/>
+      <c r="B27" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C27" s="1">
         <v>23</v>
       </c>
-      <c r="D27" s="31" t="s">
+      <c r="D27" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4" t="s">
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="O27" s="5"/>
+      <c r="O27" s="4"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="42"/>
-      <c r="B28" s="36"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="11"/>
       <c r="C28" s="1">
         <v>24</v>
       </c>
-      <c r="D28" s="31" t="s">
+      <c r="D28" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4" t="s">
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="O28" s="5"/>
+      <c r="O28" s="4"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="42"/>
-      <c r="B29" s="36"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="11"/>
       <c r="C29" s="1">
         <v>25</v>
       </c>
-      <c r="D29" s="31" t="s">
+      <c r="D29" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4" t="s">
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="O29" s="5"/>
+      <c r="O29" s="4"/>
     </row>
     <row r="30" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="45" t="s">
+      <c r="A30" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="36" t="s">
+      <c r="B30" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="1">
         <v>26</v>
       </c>
-      <c r="D30" s="32" t="s">
+      <c r="D30" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="32"/>
-      <c r="J30" s="3" t="s">
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K30" s="3"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="5"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="4"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="45"/>
-      <c r="B31" s="36"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="11"/>
       <c r="C31" s="1">
         <v>27</v>
       </c>
-      <c r="D31" s="32" t="s">
+      <c r="D31" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="3" t="s">
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="K31" s="3"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="5"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="4"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="45"/>
-      <c r="B32" s="40" t="s">
+      <c r="A32" s="8"/>
+      <c r="B32" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C32" s="1">
         <v>28</v>
       </c>
-      <c r="D32" s="31" t="s">
+      <c r="D32" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4" t="s">
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="O32" s="5"/>
+      <c r="O32" s="4"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="45"/>
-      <c r="B33" s="40"/>
+      <c r="A33" s="8"/>
+      <c r="B33" s="7"/>
       <c r="C33" s="1">
         <v>29</v>
       </c>
-      <c r="D33" s="31" t="s">
+      <c r="D33" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4" t="s">
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="O33" s="5"/>
+      <c r="O33" s="4"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="1">
         <v>30</v>
       </c>
-      <c r="D34" s="46" t="s">
+      <c r="D34" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E34" s="46"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="46"/>
-      <c r="I34" s="46"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3" t="s">
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="5"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="4"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="9"/>
-      <c r="B35" s="11"/>
+      <c r="A35" s="40"/>
+      <c r="B35" s="7"/>
       <c r="C35" s="1">
         <v>31</v>
       </c>
-      <c r="D35" s="32" t="s">
+      <c r="D35" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="4" t="s">
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="5"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="4"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="9"/>
-      <c r="B36" s="11"/>
+      <c r="A36" s="40"/>
+      <c r="B36" s="7"/>
       <c r="C36" s="1">
         <v>32</v>
       </c>
-      <c r="D36" s="32" t="s">
+      <c r="D36" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="32"/>
-      <c r="J36" s="3" t="s">
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="K36" s="3"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="5"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="4"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="9"/>
-      <c r="B37" s="11"/>
+      <c r="A37" s="40"/>
+      <c r="B37" s="7"/>
       <c r="C37" s="1">
         <v>33</v>
       </c>
-      <c r="D37" s="46" t="s">
+      <c r="D37" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E37" s="46"/>
-      <c r="F37" s="46"/>
-      <c r="G37" s="46"/>
-      <c r="H37" s="46"/>
-      <c r="I37" s="46"/>
-      <c r="J37" s="3" t="s">
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="K37" s="3"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
-      <c r="O37" s="5"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="4"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="9"/>
-      <c r="B38" s="11" t="s">
+      <c r="A38" s="40"/>
+      <c r="B38" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="1">
         <v>34</v>
       </c>
-      <c r="D38" s="31" t="s">
+      <c r="D38" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4" t="s">
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="O38" s="5"/>
+      <c r="O38" s="4"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="9"/>
-      <c r="B39" s="11"/>
+      <c r="A39" s="40"/>
+      <c r="B39" s="7"/>
       <c r="C39" s="1">
         <v>35</v>
       </c>
-      <c r="D39" s="31" t="s">
+      <c r="D39" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
-      <c r="N39" s="4" t="s">
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="O39" s="5"/>
+      <c r="O39" s="4"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="9"/>
-      <c r="B40" s="11"/>
+      <c r="A40" s="40"/>
+      <c r="B40" s="7"/>
       <c r="C40" s="1">
         <v>36</v>
       </c>
-      <c r="D40" s="43"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="43"/>
-      <c r="H40" s="43"/>
-      <c r="I40" s="43"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
-      <c r="O40" s="5"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="4"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="9"/>
-      <c r="B41" s="11"/>
+      <c r="A41" s="40"/>
+      <c r="B41" s="7"/>
       <c r="C41" s="1">
         <v>37</v>
       </c>
-      <c r="D41" s="44"/>
-      <c r="E41" s="44"/>
-      <c r="F41" s="44"/>
-      <c r="G41" s="44"/>
-      <c r="H41" s="44"/>
-      <c r="I41" s="44"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="4"/>
-      <c r="O41" s="5"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="D41:I41"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="D36:I36"/>
-    <mergeCell ref="D37:I37"/>
-    <mergeCell ref="D38:I38"/>
-    <mergeCell ref="D31:I31"/>
-    <mergeCell ref="D32:I32"/>
-    <mergeCell ref="D33:I33"/>
-    <mergeCell ref="D34:I34"/>
-    <mergeCell ref="D35:I35"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="D30:I30"/>
-    <mergeCell ref="B21:B26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="D39:I39"/>
-    <mergeCell ref="D40:I40"/>
-    <mergeCell ref="A21:A29"/>
-    <mergeCell ref="D21:I21"/>
-    <mergeCell ref="D22:I22"/>
-    <mergeCell ref="D23:I23"/>
-    <mergeCell ref="D24:I24"/>
-    <mergeCell ref="D25:I25"/>
-    <mergeCell ref="D26:I26"/>
-    <mergeCell ref="D27:I27"/>
-    <mergeCell ref="D28:I28"/>
-    <mergeCell ref="D29:I29"/>
-    <mergeCell ref="D17:I17"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="D20:I20"/>
-    <mergeCell ref="D16:I16"/>
+    <mergeCell ref="J1:K2"/>
+    <mergeCell ref="A34:A41"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="D8:I8"/>
     <mergeCell ref="A11:A20"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="A5:A10"/>
@@ -1910,22 +1876,38 @@
     <mergeCell ref="D12:I12"/>
     <mergeCell ref="D13:I13"/>
     <mergeCell ref="D10:I10"/>
-    <mergeCell ref="J1:K2"/>
-    <mergeCell ref="A34:A41"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D17:I17"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="D16:I16"/>
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="D39:I39"/>
+    <mergeCell ref="D40:I40"/>
+    <mergeCell ref="A21:A29"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="D22:I22"/>
+    <mergeCell ref="D23:I23"/>
+    <mergeCell ref="D24:I24"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="D26:I26"/>
+    <mergeCell ref="D27:I27"/>
+    <mergeCell ref="D28:I28"/>
+    <mergeCell ref="D29:I29"/>
+    <mergeCell ref="D41:I41"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="D36:I36"/>
+    <mergeCell ref="D37:I37"/>
+    <mergeCell ref="D38:I38"/>
+    <mergeCell ref="D31:I31"/>
+    <mergeCell ref="D32:I32"/>
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="D34:I34"/>
+    <mergeCell ref="D35:I35"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="D30:I30"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Artefatos/17. Análise dos Eventos para cada Cenário.xlsx
+++ b/Artefatos/17. Análise dos Eventos para cada Cenário.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="69">
   <si>
     <t>Capacidades</t>
   </si>
@@ -71,9 +71,6 @@
     <t>x</t>
   </si>
   <si>
-    <t>Cliente recebe o retorno do orçamento</t>
-  </si>
-  <si>
     <t>x(1)</t>
   </si>
   <si>
@@ -83,15 +80,6 @@
     <t>x(3)</t>
   </si>
   <si>
-    <t>Setor de serviço cria o orçamento</t>
-  </si>
-  <si>
-    <t>Setor de serviço não cria orçamento</t>
-  </si>
-  <si>
-    <t>Cliente não recebe o retorno do orçamento</t>
-  </si>
-  <si>
     <t>x(4)</t>
   </si>
   <si>
@@ -101,12 +89,6 @@
     <t xml:space="preserve">Cliente responde as perguntas referente ao veiculo </t>
   </si>
   <si>
-    <t>Setor de serviços avalia o veiculo</t>
-  </si>
-  <si>
-    <t>Setor de Serviços Analisa calculo de material</t>
-  </si>
-  <si>
     <t xml:space="preserve">Fornecedor de materiais passa orçamento </t>
   </si>
   <si>
@@ -128,54 +110,15 @@
     <t>Confirmar pagamento</t>
   </si>
   <si>
-    <t>Cliente confirma o serviço</t>
-  </si>
-  <si>
-    <t>Setor de pagamento entrega recibo e troco</t>
-  </si>
-  <si>
-    <t>setor de pagamento solicita o inicio do serviço</t>
-  </si>
-  <si>
-    <t>x(17)</t>
-  </si>
-  <si>
-    <t>x(18)</t>
-  </si>
-  <si>
-    <t>Setor de serviço finaliza o serviço</t>
-  </si>
-  <si>
-    <t>x(19)</t>
-  </si>
-  <si>
-    <t>Setor de atendimento entra em contato com o cliente</t>
-  </si>
-  <si>
-    <t>Cliente Retirar o veliculo</t>
-  </si>
-  <si>
     <t>x(20)</t>
   </si>
   <si>
     <t>Setor financeiro solicita compra de materiais</t>
   </si>
   <si>
-    <t>x(26)</t>
-  </si>
-  <si>
     <t>Comprar Mateiral</t>
   </si>
   <si>
-    <t>x(21)</t>
-  </si>
-  <si>
-    <t>Cliente solicita o orçamento do serviço</t>
-  </si>
-  <si>
-    <t>Setor de atendimento solicita a avaliação para o setor de Serviços</t>
-  </si>
-  <si>
     <t>Candidatos participam do recrutamento.</t>
   </si>
   <si>
@@ -188,24 +131,9 @@
     <t>Setor de RH abre vagas de recrutamento para trabalhar</t>
   </si>
   <si>
-    <t>x(30)</t>
-  </si>
-  <si>
-    <t>x(31)</t>
-  </si>
-  <si>
-    <t>x(32)</t>
-  </si>
-  <si>
     <t>setor de atendimento não solicita a avaliação para o setor de serviços</t>
   </si>
   <si>
-    <t>Setor de atendimento  solicita a avaliação para o setor de serviços</t>
-  </si>
-  <si>
-    <t>Setor de serviços finaliza a avaliação e encaminha para setor de atendimento</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cliente não responde as perguntas referente ao veiculo </t>
   </si>
   <si>
@@ -215,15 +143,6 @@
     <t>Setor de serviços finaliza a avaliação mas não encaminha para o setor de atendimento</t>
   </si>
   <si>
-    <t>setor de pagamento não solicita o inicio do serviço</t>
-  </si>
-  <si>
-    <t>Setor de serviço não finaliza o serviço</t>
-  </si>
-  <si>
-    <t>setor de atendimento não entra em contato com o cliente</t>
-  </si>
-  <si>
     <t>Setor financeiro não compra materiais</t>
   </si>
   <si>
@@ -242,16 +161,76 @@
     <t>x(12)</t>
   </si>
   <si>
-    <t>x(26})</t>
-  </si>
-  <si>
-    <t>x(27)</t>
-  </si>
-  <si>
-    <t>x(33)</t>
-  </si>
-  <si>
     <t>Processo Seletivo</t>
+  </si>
+  <si>
+    <t>Cliente solicita serviço</t>
+  </si>
+  <si>
+    <t>Atendente solicita a avaliação para o Setor de Serviços</t>
+  </si>
+  <si>
+    <t>Setor de serviço envia a avaliação</t>
+  </si>
+  <si>
+    <t>Cliente dá o retorno ao orçamento</t>
+  </si>
+  <si>
+    <t>Setor de Serviços não cria orçamento</t>
+  </si>
+  <si>
+    <t>Cliente não der o retorno do orçamento</t>
+  </si>
+  <si>
+    <t>Setor de Atendimento  solicita a avaliação para o setor de serviços</t>
+  </si>
+  <si>
+    <t>Mecânico avalia o veiculo</t>
+  </si>
+  <si>
+    <t>Avaliador analisa cálculo de material</t>
+  </si>
+  <si>
+    <t>Avaliador finaliza a avaliação</t>
+  </si>
+  <si>
+    <t>Setor de Serviço inicia serviço</t>
+  </si>
+  <si>
+    <t>Entrar em contato com cliente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setor de serviço finaliza o serviço e encaminha para o Setor de Atendimento </t>
+  </si>
+  <si>
+    <t>Cliente confirma o pagamento</t>
+  </si>
+  <si>
+    <t>Atendente entra em contato com o cliente para retirar seu veículo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setor de Atendimento confirma a ordem de serviço </t>
+  </si>
+  <si>
+    <t>Setor de Atendimento não confirma a ordem de serviço</t>
+  </si>
+  <si>
+    <t>Atendente  não entra em contato com o cliente</t>
+  </si>
+  <si>
+    <t>???????????????????</t>
+  </si>
+  <si>
+    <t>x(14)</t>
+  </si>
+  <si>
+    <t>x(13)</t>
+  </si>
+  <si>
+    <t>Avaliador não finaliza a avaliação</t>
+  </si>
+  <si>
+    <t>Setor de Serviço não  inicia serviço</t>
   </si>
 </sst>
 </file>
@@ -282,7 +261,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -337,8 +316,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -461,19 +446,47 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -490,110 +503,137 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -880,10 +920,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O41"/>
+  <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36:I36"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -898,95 +938,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26" t="s">
+      <c r="K1" s="6"/>
+      <c r="L1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="19"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="20"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="32"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="23" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="23" t="s">
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="21" t="s">
+      <c r="K3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="23" t="s">
+      <c r="L3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="23" t="s">
+      <c r="M3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="21" t="s">
+      <c r="N3" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="21" t="s">
+      <c r="O3" s="24" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="22"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="25"/>
     </row>
     <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
+      <c r="D5" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2" t="s">
         <v>14</v>
@@ -997,44 +1037,44 @@
       <c r="O5" s="4"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="7"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="8"/>
       <c r="C6" s="1">
         <v>2</v>
       </c>
-      <c r="D6" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
+      <c r="D6" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="4"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
-      <c r="B7" s="7"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="8"/>
       <c r="C7" s="1">
         <v>3</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
+      <c r="D7" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
       <c r="J7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="3"/>
@@ -1043,21 +1083,21 @@
       <c r="O7" s="4"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
-      <c r="B8" s="7"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="8"/>
       <c r="C8" s="1">
         <v>4</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
+      <c r="D8" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
       <c r="J8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="3"/>
@@ -1066,73 +1106,73 @@
       <c r="O8" s="4"/>
     </row>
     <row r="9" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
-      <c r="B9" s="11" t="s">
+      <c r="A9" s="30"/>
+      <c r="B9" s="29" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="5">
         <v>5</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
+      <c r="D9" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O9" s="4"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="11"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="29"/>
       <c r="C10" s="5">
         <v>6</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
+      <c r="D10" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O10" s="4"/>
     </row>
     <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="28" t="s">
+      <c r="A11" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="1">
         <v>7</v>
       </c>
-      <c r="D11" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
+      <c r="D11" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
       <c r="J11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="3"/>
@@ -1141,44 +1181,44 @@
       <c r="O11" s="4"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="29"/>
+      <c r="A12" s="35"/>
+      <c r="B12" s="10"/>
       <c r="C12" s="1">
         <v>8</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
+      <c r="D12" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="4"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="29"/>
+      <c r="A13" s="35"/>
+      <c r="B13" s="10"/>
       <c r="C13" s="1">
         <v>9</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
+      <c r="D13" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
       <c r="J13" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="3"/>
@@ -1187,44 +1227,44 @@
       <c r="O13" s="4"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="29"/>
+      <c r="A14" s="35"/>
+      <c r="B14" s="10"/>
       <c r="C14" s="1">
         <v>10</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
+      <c r="D14" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="4"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="29"/>
+      <c r="A15" s="35"/>
+      <c r="B15" s="10"/>
       <c r="C15" s="5">
         <v>11</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
+      <c r="D15" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
       <c r="J15" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="3"/>
@@ -1233,21 +1273,21 @@
       <c r="O15" s="4"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="5">
+      <c r="A16" s="35"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="1">
         <v>12</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
+      <c r="D16" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
       <c r="J16" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="3"/>
@@ -1256,212 +1296,210 @@
       <c r="O16" s="4"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
-      <c r="B17" s="12" t="s">
-        <v>12</v>
-      </c>
+      <c r="A17" s="35"/>
+      <c r="B17" s="10"/>
       <c r="C17" s="1">
         <v>13</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="2"/>
+      <c r="D17" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="K17" s="2"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
-      <c r="N17" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="N17" s="3"/>
       <c r="O17" s="4"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
-      <c r="B18" s="13"/>
+      <c r="A18" s="35"/>
+      <c r="B18" s="11"/>
       <c r="C18" s="1">
         <v>14</v>
       </c>
-      <c r="D18" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="2"/>
+      <c r="D18" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="K18" s="2"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
-      <c r="N18" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="N18" s="3"/>
       <c r="O18" s="4"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="1">
+      <c r="A19" s="35"/>
+      <c r="B19" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="5">
         <v>15</v>
       </c>
-      <c r="D19" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
+      <c r="D19" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="46"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="O19" s="4"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
-      <c r="B20" s="14"/>
+    <row r="20" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="35"/>
+      <c r="B20" s="10"/>
       <c r="C20" s="1">
         <v>16</v>
       </c>
-      <c r="D20" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
+      <c r="D20" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="46"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="O20" s="4"/>
     </row>
-    <row r="21" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>11</v>
-      </c>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="35"/>
+      <c r="B21" s="10"/>
       <c r="C21" s="1">
         <v>17</v>
       </c>
-      <c r="D21" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
+      <c r="D21" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="46"/>
       <c r="J21" s="2"/>
-      <c r="K21" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="K21" s="2"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
+      <c r="N21" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="O21" s="4"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" s="11"/>
+      <c r="A22" s="35"/>
+      <c r="B22" s="10"/>
       <c r="C22" s="1">
         <v>18</v>
       </c>
-      <c r="D22" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
+      <c r="D22" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
-      <c r="L22" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="L22" s="3"/>
       <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
+      <c r="N22" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="O22" s="4"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="1">
+      <c r="A23" s="35"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="5">
         <v>19</v>
       </c>
-      <c r="D23" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="2" t="s">
-        <v>38</v>
-      </c>
+      <c r="D23" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
+      <c r="N23" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="O23" s="4"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
+      <c r="A24" s="35"/>
       <c r="B24" s="11"/>
       <c r="C24" s="1">
         <v>20</v>
       </c>
-      <c r="D24" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="D24" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
+      <c r="N24" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="O24" s="4"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="11"/>
+    <row r="25" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="C25" s="1">
         <v>21</v>
       </c>
-      <c r="D25" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="D25" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
@@ -1469,120 +1507,110 @@
       <c r="O25" s="4"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="B26" s="11"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="10"/>
       <c r="C26" s="1">
         <v>22</v>
       </c>
-      <c r="D26" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
+      <c r="D26" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
-      <c r="L26" s="3" t="s">
-        <v>47</v>
-      </c>
+      <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="4"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
-      <c r="B27" s="11" t="s">
+      <c r="A27" s="37"/>
+      <c r="B27" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="5">
         <v>23</v>
       </c>
-      <c r="D27" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
+      <c r="D27" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
-      <c r="N27" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="N27" s="3"/>
       <c r="O27" s="4"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
+      <c r="A28" s="37"/>
       <c r="B28" s="11"/>
       <c r="C28" s="1">
         <v>24</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
-      <c r="N28" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="N28" s="3"/>
       <c r="O28" s="4"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
-      <c r="B29" s="11"/>
+      <c r="A29" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="C29" s="1">
         <v>25</v>
       </c>
-      <c r="D29" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
+      <c r="D29" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="40"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
-      <c r="N29" s="3" t="s">
-        <v>47</v>
-      </c>
+      <c r="N29" s="3"/>
       <c r="O29" s="4"/>
     </row>
-    <row r="30" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>11</v>
-      </c>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="48"/>
+      <c r="B30" s="10"/>
       <c r="C30" s="1">
         <v>26</v>
       </c>
-      <c r="D30" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="2" t="s">
-        <v>37</v>
-      </c>
+      <c r="D30" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
@@ -1590,22 +1618,22 @@
       <c r="O30" s="4"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="1">
+      <c r="A31" s="48"/>
+      <c r="B31" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="5">
         <v>27</v>
       </c>
-      <c r="D31" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="D31" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
@@ -1613,120 +1641,110 @@
       <c r="O31" s="4"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="B32" s="7" t="s">
-        <v>12</v>
-      </c>
+      <c r="A32" s="49"/>
+      <c r="B32" s="11"/>
       <c r="C32" s="1">
         <v>28</v>
       </c>
-      <c r="D32" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
+      <c r="D32" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
-      <c r="N32" s="3" t="s">
-        <v>72</v>
-      </c>
+      <c r="N32" s="3"/>
       <c r="O32" s="4"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
-      <c r="B33" s="7"/>
+    <row r="33" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>11</v>
+      </c>
       <c r="C33" s="1">
         <v>29</v>
       </c>
-      <c r="D33" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
+      <c r="D33" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
-      <c r="N33" s="3" t="s">
-        <v>73</v>
-      </c>
+      <c r="N33" s="3"/>
       <c r="O33" s="4"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>11</v>
-      </c>
+      <c r="A34" s="34"/>
+      <c r="B34" s="29"/>
       <c r="C34" s="1">
         <v>30</v>
       </c>
-      <c r="D34" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
+      <c r="D34" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
       <c r="J34" s="2"/>
-      <c r="K34" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="K34" s="2"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
       <c r="O34" s="4"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="40"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="1">
+      <c r="A35" s="34"/>
+      <c r="B35" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="5">
         <v>31</v>
       </c>
-      <c r="D35" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
+      <c r="D35" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
-      <c r="L35" s="3" t="s">
-        <v>54</v>
-      </c>
+      <c r="L35" s="3"/>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
       <c r="O35" s="4"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="40"/>
-      <c r="B36" s="7"/>
+      <c r="A36" s="34"/>
+      <c r="B36" s="8"/>
       <c r="C36" s="1">
         <v>32</v>
       </c>
-      <c r="D36" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="D36" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
@@ -1734,22 +1752,24 @@
       <c r="O36" s="4"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="40"/>
-      <c r="B37" s="7"/>
+      <c r="A37" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="C37" s="1">
         <v>33</v>
       </c>
-      <c r="D37" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="D37" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="2"/>
       <c r="K37" s="2"/>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
@@ -1757,65 +1777,61 @@
       <c r="O37" s="4"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="40"/>
-      <c r="B38" s="7" t="s">
-        <v>12</v>
-      </c>
+      <c r="A38" s="7"/>
+      <c r="B38" s="8"/>
       <c r="C38" s="1">
         <v>34</v>
       </c>
-      <c r="D38" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
+      <c r="D38" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
-      <c r="N38" s="3" t="s">
-        <v>56</v>
-      </c>
+      <c r="N38" s="3"/>
       <c r="O38" s="4"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="40"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="1">
+      <c r="A39" s="7"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="5">
         <v>35</v>
       </c>
-      <c r="D39" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
+      <c r="D39" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-      <c r="N39" s="3" t="s">
-        <v>74</v>
-      </c>
+      <c r="N39" s="3"/>
       <c r="O39" s="4"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="40"/>
-      <c r="B40" s="7"/>
+      <c r="A40" s="7"/>
+      <c r="B40" s="8"/>
       <c r="C40" s="1">
         <v>36</v>
       </c>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
+      <c r="D40" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
       <c r="L40" s="3"/>
@@ -1824,17 +1840,21 @@
       <c r="O40" s="4"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="40"/>
-      <c r="B41" s="7"/>
+      <c r="A41" s="7"/>
+      <c r="B41" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="C41" s="1">
         <v>37</v>
       </c>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
+      <c r="D41" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="26"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
       <c r="L41" s="3"/>
@@ -1842,25 +1862,68 @@
       <c r="N41" s="3"/>
       <c r="O41" s="4"/>
     </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="7"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="1">
+        <v>38</v>
+      </c>
+      <c r="D42" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="64">
-    <mergeCell ref="J1:K2"/>
-    <mergeCell ref="A34:A41"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="A11:A20"/>
+  <mergeCells count="68">
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="D24:I24"/>
+    <mergeCell ref="D23:I23"/>
+    <mergeCell ref="D16:I16"/>
+    <mergeCell ref="D17:I17"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="B11:B18"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="D39:I39"/>
+    <mergeCell ref="D40:I40"/>
+    <mergeCell ref="D41:I41"/>
+    <mergeCell ref="D34:I34"/>
+    <mergeCell ref="D35:I35"/>
+    <mergeCell ref="D36:I36"/>
+    <mergeCell ref="D37:I37"/>
+    <mergeCell ref="D38:I38"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="D42:I42"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="D26:I26"/>
+    <mergeCell ref="D27:I27"/>
+    <mergeCell ref="D28:I28"/>
+    <mergeCell ref="D29:I29"/>
+    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="D32:I32"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="D31:I31"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="D22:I22"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="A11:A24"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="A5:A10"/>
     <mergeCell ref="O1:O2"/>
@@ -1876,38 +1939,20 @@
     <mergeCell ref="D12:I12"/>
     <mergeCell ref="D13:I13"/>
     <mergeCell ref="D10:I10"/>
-    <mergeCell ref="D17:I17"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="D20:I20"/>
-    <mergeCell ref="D16:I16"/>
-    <mergeCell ref="B21:B26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="D39:I39"/>
-    <mergeCell ref="D40:I40"/>
-    <mergeCell ref="A21:A29"/>
-    <mergeCell ref="D21:I21"/>
-    <mergeCell ref="D22:I22"/>
-    <mergeCell ref="D23:I23"/>
-    <mergeCell ref="D24:I24"/>
-    <mergeCell ref="D25:I25"/>
-    <mergeCell ref="D26:I26"/>
-    <mergeCell ref="D27:I27"/>
-    <mergeCell ref="D28:I28"/>
-    <mergeCell ref="D29:I29"/>
-    <mergeCell ref="D41:I41"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="D36:I36"/>
-    <mergeCell ref="D37:I37"/>
-    <mergeCell ref="D38:I38"/>
-    <mergeCell ref="D31:I31"/>
-    <mergeCell ref="D32:I32"/>
-    <mergeCell ref="D33:I33"/>
-    <mergeCell ref="D34:I34"/>
-    <mergeCell ref="D35:I35"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="J1:K2"/>
+    <mergeCell ref="A37:A42"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="D8:I8"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Artefatos/17. Análise dos Eventos para cada Cenário.xlsx
+++ b/Artefatos/17. Análise dos Eventos para cada Cenário.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="89">
   <si>
     <t>Capacidades</t>
   </si>
@@ -107,12 +107,6 @@
     <t>x(11)</t>
   </si>
   <si>
-    <t>Confirmar pagamento</t>
-  </si>
-  <si>
-    <t>x(20)</t>
-  </si>
-  <si>
     <t>Setor financeiro solicita compra de materiais</t>
   </si>
   <si>
@@ -122,90 +116,42 @@
     <t>Candidatos participam do recrutamento.</t>
   </si>
   <si>
-    <t>Setor de RH avaliar o candidato</t>
-  </si>
-  <si>
-    <t>Setor de RH faz contratação de candidato.</t>
-  </si>
-  <si>
     <t>Setor de RH abre vagas de recrutamento para trabalhar</t>
   </si>
   <si>
-    <t>setor de atendimento não solicita a avaliação para o setor de serviços</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cliente não responde as perguntas referente ao veiculo </t>
   </si>
   <si>
     <t>Fornecedor de materiais não passa o orçamento</t>
   </si>
   <si>
-    <t>Setor de serviços finaliza a avaliação mas não encaminha para o setor de atendimento</t>
-  </si>
-  <si>
     <t>Setor financeiro não compra materiais</t>
   </si>
   <si>
-    <t>Setor financeiro encaminha materiais para o setor de serviços</t>
-  </si>
-  <si>
-    <t>Setor financeiro não encaminha os materiais para o setor de serviços</t>
-  </si>
-  <si>
-    <t>setor de RH não avalia o candidato</t>
-  </si>
-  <si>
-    <t>setor de RH não faz a contração de candidato</t>
-  </si>
-  <si>
     <t>x(12)</t>
   </si>
   <si>
     <t>Processo Seletivo</t>
   </si>
   <si>
-    <t>Cliente solicita serviço</t>
-  </si>
-  <si>
     <t>Atendente solicita a avaliação para o Setor de Serviços</t>
   </si>
   <si>
-    <t>Setor de serviço envia a avaliação</t>
-  </si>
-  <si>
     <t>Cliente dá o retorno ao orçamento</t>
   </si>
   <si>
-    <t>Setor de Serviços não cria orçamento</t>
-  </si>
-  <si>
     <t>Cliente não der o retorno do orçamento</t>
   </si>
   <si>
-    <t>Setor de Atendimento  solicita a avaliação para o setor de serviços</t>
-  </si>
-  <si>
-    <t>Mecânico avalia o veiculo</t>
-  </si>
-  <si>
     <t>Avaliador analisa cálculo de material</t>
   </si>
   <si>
     <t>Avaliador finaliza a avaliação</t>
   </si>
   <si>
-    <t>Setor de Serviço inicia serviço</t>
-  </si>
-  <si>
     <t>Entrar em contato com cliente</t>
   </si>
   <si>
-    <t xml:space="preserve">Setor de serviço finaliza o serviço e encaminha para o Setor de Atendimento </t>
-  </si>
-  <si>
-    <t>Cliente confirma o pagamento</t>
-  </si>
-  <si>
     <t>Atendente entra em contato com o cliente para retirar seu veículo.</t>
   </si>
   <si>
@@ -218,9 +164,6 @@
     <t>Atendente  não entra em contato com o cliente</t>
   </si>
   <si>
-    <t>???????????????????</t>
-  </si>
-  <si>
     <t>x(14)</t>
   </si>
   <si>
@@ -230,7 +173,124 @@
     <t>Avaliador não finaliza a avaliação</t>
   </si>
   <si>
-    <t>Setor de Serviço não  inicia serviço</t>
+    <t>x(21)</t>
+  </si>
+  <si>
+    <t>Pagamento no Cartão</t>
+  </si>
+  <si>
+    <t>Cliente confirma pagamento no cartão</t>
+  </si>
+  <si>
+    <t>Setor de Pagamento retorna pagamento aprovado</t>
+  </si>
+  <si>
+    <t>Setor de Pagamento confirma processamento do cartão</t>
+  </si>
+  <si>
+    <t>x(39)</t>
+  </si>
+  <si>
+    <t>x(40)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confirmar pagamento </t>
+  </si>
+  <si>
+    <t>Cliente confirma a forma de pagamento</t>
+  </si>
+  <si>
+    <t>Cliente faz pagamento em dinheiro</t>
+  </si>
+  <si>
+    <t>Cliente confirma o serviço</t>
+  </si>
+  <si>
+    <t>x(22)</t>
+  </si>
+  <si>
+    <t>Cliente não confirma a forma  pagamento</t>
+  </si>
+  <si>
+    <t>x(22</t>
+  </si>
+  <si>
+    <t>x(25)</t>
+  </si>
+  <si>
+    <t>x(28)</t>
+  </si>
+  <si>
+    <t>x(29)</t>
+  </si>
+  <si>
+    <t>x(30)</t>
+  </si>
+  <si>
+    <t>x(33)</t>
+  </si>
+  <si>
+    <t>x(34)</t>
+  </si>
+  <si>
+    <t>x(35)</t>
+  </si>
+  <si>
+    <t>x(36)</t>
+  </si>
+  <si>
+    <t>Setor de Pagamento retorna pagamento não aprovado</t>
+  </si>
+  <si>
+    <t>x(41)</t>
+  </si>
+  <si>
+    <t>Cliente Solicita Serviço</t>
+  </si>
+  <si>
+    <t>Setor de Serviço envia a avaliação</t>
+  </si>
+  <si>
+    <t>Setor de Serviço não cria orçamento</t>
+  </si>
+  <si>
+    <t>Setor de Atendimento solicita a avaliação para o Setor de Serviço</t>
+  </si>
+  <si>
+    <t>Funileiro e Pintor avaliam o veiculo *</t>
+  </si>
+  <si>
+    <t>Funileiro e Pintor iniciam o serviço</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funileiro e Pintor finalizam o serviço e encaminham para o Setor de Atendimento </t>
+  </si>
+  <si>
+    <t>Setor de Atendimento não solicita a avaliação para o Setor de Serviço</t>
+  </si>
+  <si>
+    <t>Funileiro e Pintor não inicia serviço</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funileiro e Pintor não finalizam a avaliação </t>
+  </si>
+  <si>
+    <t>Estoquista encaminha materiais para o setor de serviços</t>
+  </si>
+  <si>
+    <t>Estoquista não encaminha os materiais para o setor de serviços</t>
+  </si>
+  <si>
+    <t>Recrutadora  avalia o candidato</t>
+  </si>
+  <si>
+    <t>Gerente faz contratação de candidato.</t>
+  </si>
+  <si>
+    <t>Recrutadora não avalia o candidato</t>
+  </si>
+  <si>
+    <t>Gerente não faz a contração de candidato</t>
   </si>
 </sst>
 </file>
@@ -312,18 +372,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -341,50 +401,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -417,24 +433,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -445,48 +443,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -504,22 +465,43 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -528,111 +510,31 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -920,10 +822,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O42"/>
+  <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17:I17"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27:I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -938,95 +840,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6" t="s">
+      <c r="K1" s="22"/>
+      <c r="L1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="31"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="15"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="32"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="16"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="16" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="16" t="s">
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="24" t="s">
+      <c r="K3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="L3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="16" t="s">
+      <c r="M3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="24" t="s">
+      <c r="N3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="24" t="s">
+      <c r="O3" s="17" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="25"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="18"/>
     </row>
     <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="D5" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
+      <c r="D5" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2" t="s">
         <v>14</v>
@@ -1037,19 +939,19 @@
       <c r="O5" s="4"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
-      <c r="B6" s="8"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="9"/>
       <c r="C6" s="1">
         <v>2</v>
       </c>
-      <c r="D6" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
+      <c r="D6" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="3" t="s">
@@ -1060,19 +962,19 @@
       <c r="O6" s="4"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
-      <c r="B7" s="8"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="9"/>
       <c r="C7" s="1">
         <v>3</v>
       </c>
-      <c r="D7" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
+      <c r="D7" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
       <c r="J7" s="2" t="s">
         <v>16</v>
       </c>
@@ -1083,19 +985,19 @@
       <c r="O7" s="4"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
-      <c r="B8" s="8"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="9"/>
       <c r="C8" s="1">
         <v>4</v>
       </c>
-      <c r="D8" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
+      <c r="D8" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
       <c r="J8" s="2" t="s">
         <v>17</v>
       </c>
@@ -1106,21 +1008,21 @@
       <c r="O8" s="4"/>
     </row>
     <row r="9" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="30"/>
-      <c r="B9" s="29" t="s">
+      <c r="A9" s="14"/>
+      <c r="B9" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="5">
         <v>5</v>
       </c>
-      <c r="D9" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
+      <c r="D9" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="3"/>
@@ -1131,19 +1033,19 @@
       <c r="O9" s="4"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
-      <c r="B10" s="29"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="5">
         <v>6</v>
       </c>
-      <c r="D10" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
+      <c r="D10" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="3"/>
@@ -1154,23 +1056,23 @@
       <c r="O10" s="4"/>
     </row>
     <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="1">
         <v>7</v>
       </c>
-      <c r="D11" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
+      <c r="D11" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
       <c r="J11" s="2" t="s">
         <v>15</v>
       </c>
@@ -1181,19 +1083,19 @@
       <c r="O11" s="4"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
-      <c r="B12" s="10"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="1">
         <v>8</v>
       </c>
-      <c r="D12" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
+      <c r="D12" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="3" t="s">
@@ -1204,19 +1106,19 @@
       <c r="O12" s="4"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="35"/>
-      <c r="B13" s="10"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="12"/>
       <c r="C13" s="1">
         <v>9</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
       <c r="J13" s="2" t="s">
         <v>23</v>
       </c>
@@ -1227,19 +1129,19 @@
       <c r="O13" s="4"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="35"/>
-      <c r="B14" s="10"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="12"/>
       <c r="C14" s="1">
         <v>10</v>
       </c>
-      <c r="D14" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
+      <c r="D14" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="3" t="s">
@@ -1250,19 +1152,19 @@
       <c r="O14" s="4"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
-      <c r="B15" s="10"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="12"/>
       <c r="C15" s="5">
         <v>11</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
       <c r="J15" s="2" t="s">
         <v>25</v>
       </c>
@@ -1273,19 +1175,19 @@
       <c r="O15" s="4"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
-      <c r="B16" s="10"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="12"/>
       <c r="C16" s="1">
         <v>12</v>
       </c>
-      <c r="D16" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
+      <c r="D16" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
       <c r="J16" s="2" t="s">
         <v>26</v>
       </c>
@@ -1296,21 +1198,21 @@
       <c r="O16" s="4"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="35"/>
-      <c r="B17" s="10"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="12"/>
       <c r="C17" s="1">
         <v>13</v>
       </c>
-      <c r="D17" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="40"/>
+      <c r="D17" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
       <c r="J17" s="2" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="3"/>
@@ -1319,21 +1221,21 @@
       <c r="O17" s="4"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
-      <c r="B18" s="11"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="12"/>
       <c r="C18" s="1">
         <v>14</v>
       </c>
-      <c r="D18" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="40"/>
+      <c r="D18" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
       <c r="J18" s="2" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="3"/>
@@ -1342,21 +1244,21 @@
       <c r="O18" s="4"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
-      <c r="B19" s="9" t="s">
+      <c r="A19" s="13"/>
+      <c r="B19" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="5">
         <v>15</v>
       </c>
-      <c r="D19" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="46"/>
+      <c r="D19" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="3"/>
@@ -1367,19 +1269,19 @@
       <c r="O19" s="4"/>
     </row>
     <row r="20" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="35"/>
-      <c r="B20" s="10"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="12"/>
       <c r="C20" s="1">
         <v>16</v>
       </c>
-      <c r="D20" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="46"/>
+      <c r="D20" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="3"/>
@@ -1390,19 +1292,19 @@
       <c r="O20" s="4"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="35"/>
-      <c r="B21" s="10"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="12"/>
       <c r="C21" s="1">
         <v>17</v>
       </c>
-      <c r="D21" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="46"/>
+      <c r="D21" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="3"/>
@@ -1413,183 +1315,193 @@
       <c r="O21" s="4"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="35"/>
-      <c r="B22" s="10"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="12"/>
       <c r="C22" s="1">
         <v>18</v>
       </c>
-      <c r="D22" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
+      <c r="D22" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="O22" s="4"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="35"/>
-      <c r="B23" s="10"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="12"/>
       <c r="C23" s="5">
         <v>19</v>
       </c>
-      <c r="D23" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="46"/>
+      <c r="D23" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="O23" s="4"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="35"/>
-      <c r="B24" s="11"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="12"/>
       <c r="C24" s="1">
         <v>20</v>
       </c>
-      <c r="D24" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="43"/>
+      <c r="D24" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="O24" s="4"/>
     </row>
-    <row r="25" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="9" t="s">
+    <row r="25" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="1">
         <v>21</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
       <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
+      <c r="K25" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="4"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="37"/>
-      <c r="B26" s="10"/>
+    <row r="26" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="30"/>
+      <c r="B26" s="12"/>
       <c r="C26" s="1">
         <v>22</v>
       </c>
-      <c r="D26" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="2"/>
+      <c r="D26" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="K26" s="2"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="4"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="37"/>
-      <c r="B27" s="9" t="s">
-        <v>12</v>
-      </c>
+    <row r="27" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="30"/>
+      <c r="B27" s="12"/>
       <c r="C27" s="5">
         <v>23</v>
       </c>
-      <c r="D27" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
+      <c r="D27" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
-      <c r="L27" s="3"/>
+      <c r="L27" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="4"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="37"/>
-      <c r="B28" s="11"/>
+    <row r="28" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="30"/>
+      <c r="B28" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="C28" s="1">
         <v>24</v>
       </c>
-      <c r="D28" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
+      <c r="D28" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
+      <c r="N28" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="O28" s="4"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="B29" s="9" t="s">
+      <c r="A29" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C29" s="1">
         <v>25</v>
       </c>
-      <c r="D29" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="40"/>
-      <c r="J29" s="2"/>
+      <c r="D29" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="K29" s="2"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
@@ -1597,20 +1509,22 @@
       <c r="O29" s="4"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="48"/>
-      <c r="B30" s="10"/>
+      <c r="A30" s="29"/>
+      <c r="B30" s="12"/>
       <c r="C30" s="1">
         <v>26</v>
       </c>
-      <c r="D30" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="2"/>
+      <c r="D30" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="K30" s="2"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
@@ -1618,68 +1532,74 @@
       <c r="O30" s="4"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="48"/>
-      <c r="B31" s="10" t="s">
+      <c r="A31" s="29"/>
+      <c r="B31" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C31" s="5">
         <v>27</v>
       </c>
-      <c r="D31" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="46"/>
+      <c r="D31" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
+      <c r="N31" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="O31" s="4"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="49"/>
-      <c r="B32" s="11"/>
+      <c r="A32" s="29"/>
+      <c r="B32" s="12"/>
       <c r="C32" s="1">
         <v>28</v>
       </c>
-      <c r="D32" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
+      <c r="D32" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
+      <c r="N32" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="O32" s="4"/>
     </row>
     <row r="33" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="B33" s="29" t="s">
+      <c r="A33" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C33" s="1">
         <v>29</v>
       </c>
-      <c r="D33" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="2"/>
+      <c r="D33" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="K33" s="2"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
@@ -1687,20 +1607,22 @@
       <c r="O33" s="4"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="34"/>
-      <c r="B34" s="29"/>
+      <c r="A34" s="10"/>
+      <c r="B34" s="12"/>
       <c r="C34" s="1">
         <v>30</v>
       </c>
-      <c r="D34" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="2"/>
+      <c r="D34" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="K34" s="2"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
@@ -1708,89 +1630,97 @@
       <c r="O34" s="4"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="34"/>
-      <c r="B35" s="8" t="s">
+      <c r="A35" s="10"/>
+      <c r="B35" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C35" s="5">
         <v>31</v>
       </c>
-      <c r="D35" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26"/>
+      <c r="D35" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
+      <c r="N35" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="O35" s="4"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="34"/>
-      <c r="B36" s="8"/>
+      <c r="A36" s="10"/>
+      <c r="B36" s="9"/>
       <c r="C36" s="1">
         <v>32</v>
       </c>
-      <c r="D36" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26"/>
+      <c r="D36" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
+      <c r="N36" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="O36" s="4"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B37" s="8" t="s">
+      <c r="A37" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C37" s="1">
         <v>33</v>
       </c>
-      <c r="D37" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27"/>
+      <c r="D37" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
       <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
+      <c r="K37" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
       <c r="O37" s="4"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
-      <c r="B38" s="8"/>
+      <c r="A38" s="25"/>
+      <c r="B38" s="9"/>
       <c r="C38" s="1">
         <v>34</v>
       </c>
-      <c r="D38" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="2"/>
+      <c r="D38" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="K38" s="2"/>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
@@ -1798,20 +1728,22 @@
       <c r="O38" s="4"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
-      <c r="B39" s="8"/>
+      <c r="A39" s="25"/>
+      <c r="B39" s="9"/>
       <c r="C39" s="5">
         <v>35</v>
       </c>
-      <c r="D39" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="2"/>
+      <c r="D39" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="K39" s="2"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
@@ -1819,20 +1751,22 @@
       <c r="O39" s="4"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
-      <c r="B40" s="8"/>
+      <c r="A40" s="25"/>
+      <c r="B40" s="9"/>
       <c r="C40" s="1">
         <v>36</v>
       </c>
-      <c r="D40" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="2"/>
+      <c r="D40" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="K40" s="2"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
@@ -1840,89 +1774,174 @@
       <c r="O40" s="4"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="7"/>
-      <c r="B41" s="8" t="s">
+      <c r="A41" s="25"/>
+      <c r="B41" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C41" s="1">
         <v>37</v>
       </c>
-      <c r="D41" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="26"/>
+      <c r="D41" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
+      <c r="N41" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="O41" s="4"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="7"/>
-      <c r="B42" s="8"/>
+      <c r="A42" s="25"/>
+      <c r="B42" s="9"/>
       <c r="C42" s="1">
         <v>38</v>
       </c>
-      <c r="D42" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="26"/>
+      <c r="D42" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
+      <c r="N42" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="O42" s="4"/>
     </row>
+    <row r="43" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="5">
+        <v>39</v>
+      </c>
+      <c r="D43" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="4"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="12"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="1">
+        <v>40</v>
+      </c>
+      <c r="D44" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K44" s="2"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="4"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="12"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="1">
+        <v>41</v>
+      </c>
+      <c r="D45" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K45" s="2"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="4"/>
+    </row>
+    <row r="46" spans="1:15" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A46" s="12"/>
+      <c r="B46" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="26">
+        <v>42</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="O46" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="68">
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="D24:I24"/>
-    <mergeCell ref="D23:I23"/>
-    <mergeCell ref="D16:I16"/>
-    <mergeCell ref="D17:I17"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="B11:B18"/>
-    <mergeCell ref="B19:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="D39:I39"/>
-    <mergeCell ref="D40:I40"/>
-    <mergeCell ref="D41:I41"/>
-    <mergeCell ref="D34:I34"/>
-    <mergeCell ref="D35:I35"/>
-    <mergeCell ref="D36:I36"/>
-    <mergeCell ref="D37:I37"/>
-    <mergeCell ref="D38:I38"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="D33:I33"/>
-    <mergeCell ref="D42:I42"/>
-    <mergeCell ref="D25:I25"/>
+  <mergeCells count="73">
+    <mergeCell ref="D45:I45"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="D43:I43"/>
+    <mergeCell ref="D44:I44"/>
+    <mergeCell ref="D46:I46"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="J1:K2"/>
+    <mergeCell ref="A37:A42"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="D8:I8"/>
     <mergeCell ref="D26:I26"/>
-    <mergeCell ref="D27:I27"/>
-    <mergeCell ref="D28:I28"/>
-    <mergeCell ref="D29:I29"/>
-    <mergeCell ref="D30:I30"/>
-    <mergeCell ref="D32:I32"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="D31:I31"/>
-    <mergeCell ref="D20:I20"/>
-    <mergeCell ref="D21:I21"/>
-    <mergeCell ref="D22:I22"/>
-    <mergeCell ref="D19:I19"/>
     <mergeCell ref="A11:A24"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="A5:A10"/>
@@ -1939,20 +1958,42 @@
     <mergeCell ref="D12:I12"/>
     <mergeCell ref="D13:I13"/>
     <mergeCell ref="D10:I10"/>
-    <mergeCell ref="J1:K2"/>
-    <mergeCell ref="A37:A42"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D42:I42"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="D27:I27"/>
+    <mergeCell ref="D28:I28"/>
+    <mergeCell ref="D29:I29"/>
+    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="D32:I32"/>
+    <mergeCell ref="D31:I31"/>
+    <mergeCell ref="D40:I40"/>
+    <mergeCell ref="D41:I41"/>
+    <mergeCell ref="D34:I34"/>
+    <mergeCell ref="D35:I35"/>
+    <mergeCell ref="D36:I36"/>
+    <mergeCell ref="D37:I37"/>
+    <mergeCell ref="D38:I38"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="D39:I39"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="D24:I24"/>
+    <mergeCell ref="D23:I23"/>
+    <mergeCell ref="D16:I16"/>
+    <mergeCell ref="D17:I17"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="B11:B18"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="D22:I22"/>
+    <mergeCell ref="D19:I19"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Artefatos/17. Análise dos Eventos para cada Cenário.xlsx
+++ b/Artefatos/17. Análise dos Eventos para cada Cenário.xlsx
@@ -257,9 +257,6 @@
     <t>Setor de Atendimento solicita a avaliação para o Setor de Serviço</t>
   </si>
   <si>
-    <t>Funileiro e Pintor avaliam o veiculo *</t>
-  </si>
-  <si>
     <t>Funileiro e Pintor iniciam o serviço</t>
   </si>
   <si>
@@ -291,6 +288,9 @@
   </si>
   <si>
     <t>Gerente não faz a contração de candidato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funileiro e Pintor avaliam o veiculo </t>
   </si>
 </sst>
 </file>
@@ -321,7 +321,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -379,6 +379,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,7 +453,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -471,71 +477,77 @@
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -824,8 +836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27:I27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -840,95 +852,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22" t="s">
+      <c r="K1" s="13"/>
+      <c r="L1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="15"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="23"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="16"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="24"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="19" t="s">
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="K3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="19" t="s">
+      <c r="L3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="19" t="s">
+      <c r="M3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="17" t="s">
+      <c r="N3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="17" t="s">
+      <c r="O3" s="18" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="18"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="19"/>
     </row>
     <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2" t="s">
         <v>14</v>
@@ -939,19 +951,19 @@
       <c r="O5" s="4"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="9"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="1">
         <v>2</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="3" t="s">
@@ -962,19 +974,19 @@
       <c r="O6" s="4"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="9"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="12"/>
       <c r="C7" s="1">
         <v>3</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
       <c r="J7" s="2" t="s">
         <v>16</v>
       </c>
@@ -985,19 +997,19 @@
       <c r="O7" s="4"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="9"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="1">
         <v>4</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
       <c r="J8" s="2" t="s">
         <v>17</v>
       </c>
@@ -1008,8 +1020,8 @@
       <c r="O8" s="4"/>
     </row>
     <row r="9" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="12" t="s">
+      <c r="A9" s="22"/>
+      <c r="B9" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="5">
@@ -1033,8 +1045,8 @@
       <c r="O9" s="4"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="12"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="10"/>
       <c r="C10" s="5">
         <v>6</v>
       </c>
@@ -1056,23 +1068,23 @@
       <c r="O10" s="4"/>
     </row>
     <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="1">
         <v>7</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
       <c r="J11" s="2" t="s">
         <v>15</v>
       </c>
@@ -1083,19 +1095,19 @@
       <c r="O11" s="4"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="12"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="10"/>
       <c r="C12" s="1">
         <v>8</v>
       </c>
-      <c r="D12" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
+      <c r="D12" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="3" t="s">
@@ -1106,19 +1118,19 @@
       <c r="O12" s="4"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="12"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="10"/>
       <c r="C13" s="1">
         <v>9</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
       <c r="J13" s="2" t="s">
         <v>23</v>
       </c>
@@ -1129,19 +1141,19 @@
       <c r="O13" s="4"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="12"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="10"/>
       <c r="C14" s="1">
         <v>10</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="3" t="s">
@@ -1152,19 +1164,19 @@
       <c r="O14" s="4"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="12"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="10"/>
       <c r="C15" s="5">
         <v>11</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
       <c r="J15" s="2" t="s">
         <v>25</v>
       </c>
@@ -1175,19 +1187,19 @@
       <c r="O15" s="4"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="12"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="10"/>
       <c r="C16" s="1">
         <v>12</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
       <c r="J16" s="2" t="s">
         <v>26</v>
       </c>
@@ -1198,19 +1210,19 @@
       <c r="O16" s="4"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="12"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="10"/>
       <c r="C17" s="1">
         <v>13</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
+      <c r="D17" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
       <c r="J17" s="2" t="s">
         <v>49</v>
       </c>
@@ -1221,19 +1233,19 @@
       <c r="O17" s="4"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="12"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="10"/>
       <c r="C18" s="1">
         <v>14</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
+      <c r="D18" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
       <c r="J18" s="2" t="s">
         <v>47</v>
       </c>
@@ -1244,15 +1256,15 @@
       <c r="O18" s="4"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="12" t="s">
+      <c r="A19" s="21"/>
+      <c r="B19" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="5">
         <v>15</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
@@ -1269,8 +1281,8 @@
       <c r="O19" s="4"/>
     </row>
     <row r="20" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="12"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="10"/>
       <c r="C20" s="1">
         <v>16</v>
       </c>
@@ -1292,8 +1304,8 @@
       <c r="O20" s="4"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="12"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="10"/>
       <c r="C21" s="1">
         <v>17</v>
       </c>
@@ -1315,8 +1327,8 @@
       <c r="O21" s="4"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="12"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="10"/>
       <c r="C22" s="1">
         <v>18</v>
       </c>
@@ -1338,13 +1350,13 @@
       <c r="O22" s="4"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="12"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="10"/>
       <c r="C23" s="5">
         <v>19</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
@@ -1361,13 +1373,13 @@
       <c r="O23" s="4"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="12"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="10"/>
       <c r="C24" s="1">
         <v>20</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
@@ -1384,23 +1396,23 @@
       <c r="O24" s="4"/>
     </row>
     <row r="25" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="1">
         <v>21</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2" t="s">
         <v>14</v>
@@ -1411,19 +1423,19 @@
       <c r="O25" s="4"/>
     </row>
     <row r="26" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="30"/>
-      <c r="B26" s="12"/>
+      <c r="A26" s="27"/>
+      <c r="B26" s="10"/>
       <c r="C26" s="1">
         <v>22</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
       <c r="J26" s="2" t="s">
         <v>49</v>
       </c>
@@ -1434,19 +1446,19 @@
       <c r="O26" s="4"/>
     </row>
     <row r="27" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="30"/>
-      <c r="B27" s="12"/>
+      <c r="A27" s="27"/>
+      <c r="B27" s="10"/>
       <c r="C27" s="5">
         <v>23</v>
       </c>
-      <c r="D27" s="28" t="s">
+      <c r="D27" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="3" t="s">
@@ -1457,7 +1469,7 @@
       <c r="O27" s="4"/>
     </row>
     <row r="28" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="30"/>
+      <c r="A28" s="27"/>
       <c r="B28" s="7" t="s">
         <v>12</v>
       </c>
@@ -1485,20 +1497,20 @@
       <c r="A29" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C29" s="1">
         <v>25</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
       <c r="J29" s="2" t="s">
         <v>14</v>
       </c>
@@ -1510,18 +1522,18 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="29"/>
-      <c r="B30" s="12"/>
+      <c r="B30" s="10"/>
       <c r="C30" s="1">
         <v>26</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
       <c r="J30" s="2" t="s">
         <v>63</v>
       </c>
@@ -1533,20 +1545,20 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="29"/>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C31" s="5">
         <v>27</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="L31" s="3"/>
@@ -1558,18 +1570,18 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="29"/>
-      <c r="B32" s="12"/>
+      <c r="B32" s="10"/>
       <c r="C32" s="1">
         <v>28</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="3"/>
@@ -1580,23 +1592,23 @@
       <c r="O32" s="4"/>
     </row>
     <row r="33" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C33" s="1">
         <v>29</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
       <c r="J33" s="2" t="s">
         <v>49</v>
       </c>
@@ -1607,19 +1619,19 @@
       <c r="O33" s="4"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
-      <c r="B34" s="12"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="10"/>
       <c r="C34" s="1">
         <v>30</v>
       </c>
-      <c r="D34" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
+      <c r="D34" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
       <c r="J34" s="2" t="s">
         <v>65</v>
       </c>
@@ -1630,21 +1642,21 @@
       <c r="O34" s="4"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="10"/>
-      <c r="B35" s="9" t="s">
+      <c r="A35" s="28"/>
+      <c r="B35" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C35" s="5">
         <v>31</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
       <c r="L35" s="3"/>
@@ -1655,19 +1667,19 @@
       <c r="O35" s="4"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="10"/>
-      <c r="B36" s="9"/>
+      <c r="A36" s="28"/>
+      <c r="B36" s="12"/>
       <c r="C36" s="1">
         <v>32</v>
       </c>
-      <c r="D36" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
+      <c r="D36" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="3"/>
@@ -1678,23 +1690,23 @@
       <c r="O36" s="4"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C37" s="1">
         <v>33</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2" t="s">
         <v>14</v>
@@ -1705,19 +1717,19 @@
       <c r="O37" s="4"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="25"/>
-      <c r="B38" s="9"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="12"/>
       <c r="C38" s="1">
         <v>34</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
       <c r="J38" s="2" t="s">
         <v>67</v>
       </c>
@@ -1728,19 +1740,19 @@
       <c r="O38" s="4"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="25"/>
-      <c r="B39" s="9"/>
+      <c r="A39" s="14"/>
+      <c r="B39" s="12"/>
       <c r="C39" s="5">
         <v>35</v>
       </c>
-      <c r="D39" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
+      <c r="D39" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="30"/>
       <c r="J39" s="2" t="s">
         <v>68</v>
       </c>
@@ -1751,19 +1763,19 @@
       <c r="O39" s="4"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="25"/>
-      <c r="B40" s="9"/>
+      <c r="A40" s="14"/>
+      <c r="B40" s="12"/>
       <c r="C40" s="1">
         <v>36</v>
       </c>
-      <c r="D40" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
+      <c r="D40" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
       <c r="J40" s="2" t="s">
         <v>69</v>
       </c>
@@ -1774,21 +1786,21 @@
       <c r="O40" s="4"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="25"/>
-      <c r="B41" s="9" t="s">
+      <c r="A41" s="14"/>
+      <c r="B41" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C41" s="1">
         <v>37</v>
       </c>
-      <c r="D41" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
+      <c r="D41" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
       <c r="L41" s="3"/>
@@ -1799,19 +1811,19 @@
       <c r="O41" s="4"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="25"/>
-      <c r="B42" s="9"/>
+      <c r="A42" s="14"/>
+      <c r="B42" s="12"/>
       <c r="C42" s="1">
         <v>38</v>
       </c>
-      <c r="D42" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
+      <c r="D42" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
       <c r="L42" s="3"/>
@@ -1822,23 +1834,23 @@
       <c r="O42" s="4"/>
     </row>
     <row r="43" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C43" s="5">
         <v>39</v>
       </c>
-      <c r="D43" s="23" t="s">
+      <c r="D43" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="32"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
       <c r="L43" s="3" t="s">
@@ -1849,19 +1861,19 @@
       <c r="O43" s="4"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="12"/>
-      <c r="B44" s="9"/>
+      <c r="A44" s="10"/>
+      <c r="B44" s="12"/>
       <c r="C44" s="1">
         <v>40</v>
       </c>
-      <c r="D44" s="23" t="s">
+      <c r="D44" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="23"/>
-      <c r="I44" s="23"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="32"/>
       <c r="J44" s="2" t="s">
         <v>54</v>
       </c>
@@ -1872,19 +1884,19 @@
       <c r="O44" s="4"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="12"/>
-      <c r="B45" s="9"/>
+      <c r="A45" s="10"/>
+      <c r="B45" s="12"/>
       <c r="C45" s="1">
         <v>41</v>
       </c>
-      <c r="D45" s="23" t="s">
+      <c r="D45" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="23"/>
-      <c r="I45" s="23"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="32"/>
       <c r="J45" s="2" t="s">
         <v>55</v>
       </c>
@@ -1895,21 +1907,21 @@
       <c r="O45" s="4"/>
     </row>
     <row r="46" spans="1:15" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A46" s="12"/>
+      <c r="A46" s="10"/>
       <c r="B46" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C46" s="26">
+      <c r="C46" s="8">
         <v>42</v>
       </c>
-      <c r="D46" s="11" t="s">
+      <c r="D46" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="31"/>
+      <c r="I46" s="31"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
       <c r="L46" s="3"/>
@@ -1921,12 +1933,57 @@
     </row>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="D45:I45"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="D43:I43"/>
-    <mergeCell ref="D44:I44"/>
-    <mergeCell ref="D46:I46"/>
-    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="B11:B18"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="D22:I22"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="D24:I24"/>
+    <mergeCell ref="D23:I23"/>
+    <mergeCell ref="D16:I16"/>
+    <mergeCell ref="D17:I17"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="D39:I39"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="D42:I42"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="D27:I27"/>
+    <mergeCell ref="D28:I28"/>
+    <mergeCell ref="D29:I29"/>
+    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="D32:I32"/>
+    <mergeCell ref="D31:I31"/>
+    <mergeCell ref="D40:I40"/>
+    <mergeCell ref="D41:I41"/>
+    <mergeCell ref="D34:I34"/>
+    <mergeCell ref="D35:I35"/>
+    <mergeCell ref="D36:I36"/>
+    <mergeCell ref="D37:I37"/>
+    <mergeCell ref="D38:I38"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="D15:I15"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="D12:I12"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="L1:N2"/>
     <mergeCell ref="J1:K2"/>
     <mergeCell ref="A37:A42"/>
     <mergeCell ref="B37:B40"/>
@@ -1943,57 +2000,12 @@
     <mergeCell ref="D8:I8"/>
     <mergeCell ref="D26:I26"/>
     <mergeCell ref="A11:A24"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="D15:I15"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="L1:N2"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="D12:I12"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="D42:I42"/>
-    <mergeCell ref="D25:I25"/>
-    <mergeCell ref="D27:I27"/>
-    <mergeCell ref="D28:I28"/>
-    <mergeCell ref="D29:I29"/>
-    <mergeCell ref="D30:I30"/>
-    <mergeCell ref="D32:I32"/>
-    <mergeCell ref="D31:I31"/>
-    <mergeCell ref="D40:I40"/>
-    <mergeCell ref="D41:I41"/>
-    <mergeCell ref="D34:I34"/>
-    <mergeCell ref="D35:I35"/>
-    <mergeCell ref="D36:I36"/>
-    <mergeCell ref="D37:I37"/>
-    <mergeCell ref="D38:I38"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="D39:I39"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="D33:I33"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="D24:I24"/>
-    <mergeCell ref="D23:I23"/>
-    <mergeCell ref="D16:I16"/>
-    <mergeCell ref="D17:I17"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="B11:B18"/>
-    <mergeCell ref="B19:B24"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="D20:I20"/>
-    <mergeCell ref="D21:I21"/>
-    <mergeCell ref="D22:I22"/>
-    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="D45:I45"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="D43:I43"/>
+    <mergeCell ref="D44:I44"/>
+    <mergeCell ref="D46:I46"/>
+    <mergeCell ref="B43:B45"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Artefatos/17. Análise dos Eventos para cada Cenário.xlsx
+++ b/Artefatos/17. Análise dos Eventos para cada Cenário.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eron Bruce\Desktop\tcc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eron Bruce\Desktop\takai correções\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="4635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9045" windowHeight="7200"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="90">
   <si>
     <t>Capacidades</t>
   </si>
@@ -86,12 +86,6 @@
     <t>Avaliar o serviço que deve ser realizado</t>
   </si>
   <si>
-    <t xml:space="preserve">Cliente responde as perguntas referente ao veiculo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fornecedor de materiais passa orçamento </t>
-  </si>
-  <si>
     <t>x(7)</t>
   </si>
   <si>
@@ -101,196 +95,205 @@
     <t>x(9)</t>
   </si>
   <si>
-    <t>x(10)</t>
+    <t>Candidatos participam do recrutamento.</t>
+  </si>
+  <si>
+    <t>Processo Seletivo</t>
+  </si>
+  <si>
+    <t>Atendente solicita a avaliação para o Setor de Serviços</t>
+  </si>
+  <si>
+    <t>Cliente dá o retorno ao orçamento</t>
+  </si>
+  <si>
+    <t>Avaliador analisa cálculo de material</t>
+  </si>
+  <si>
+    <t>Entrar em contato com cliente</t>
+  </si>
+  <si>
+    <t>Atendente  não entra em contato com o cliente</t>
+  </si>
+  <si>
+    <t>Pagamento no Cartão</t>
+  </si>
+  <si>
+    <t>Cliente confirma pagamento no cartão</t>
+  </si>
+  <si>
+    <t>x(39)</t>
+  </si>
+  <si>
+    <t>x(40)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confirmar pagamento </t>
+  </si>
+  <si>
+    <t>x(22)</t>
+  </si>
+  <si>
+    <t>x(28)</t>
+  </si>
+  <si>
+    <t>x(30)</t>
+  </si>
+  <si>
+    <t>x(33)</t>
+  </si>
+  <si>
+    <t>x(34)</t>
+  </si>
+  <si>
+    <t>x(35)</t>
+  </si>
+  <si>
+    <t>x(36)</t>
+  </si>
+  <si>
+    <t>x(41)</t>
+  </si>
+  <si>
+    <t>Cliente Solicita Serviço</t>
+  </si>
+  <si>
+    <t>Setor de Serviço envia a avaliação</t>
+  </si>
+  <si>
+    <t>Setor de Serviço não cria orçamento</t>
+  </si>
+  <si>
+    <t>Gerente não faz a contração de candidato</t>
+  </si>
+  <si>
+    <t>Cliente não deu o retorno do orçamento</t>
+  </si>
+  <si>
+    <t>Iniciar e Finalizar serviço</t>
+  </si>
+  <si>
+    <t>Setor de Atendimento solicita avaliação</t>
+  </si>
+  <si>
+    <t>Avaliador realiza perguntas</t>
+  </si>
+  <si>
+    <t>Cliente envia resposta</t>
+  </si>
+  <si>
+    <t>Fornecedor de Materiais envia orçamento</t>
+  </si>
+  <si>
+    <t>Avaliador finaliza avaliação</t>
+  </si>
+  <si>
+    <t>Fornecedor de Materiais não enviou orçamento</t>
+  </si>
+  <si>
+    <t>Funileiro e Pintor iniciam o serviço</t>
+  </si>
+  <si>
+    <t>Setor de Atendimento não enviou a ordem de serviço</t>
+  </si>
+  <si>
+    <t>Funileiro e Pintor não iniciam o serviço</t>
+  </si>
+  <si>
+    <t>Setor de Atendimento não solicita avaliação</t>
+  </si>
+  <si>
+    <t>x(15)</t>
+  </si>
+  <si>
+    <t>x(17)</t>
+  </si>
+  <si>
+    <t>Setor de Serviço verifica a confirmação de pagamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entrar em contato com o cliente </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setor de Atendimento Recebe ordem de serviço finalizada </t>
+  </si>
+  <si>
+    <t>Setor de Atendimento não recebe a ordem de serviço</t>
+  </si>
+  <si>
+    <t>Setor de Serviço solicita compra de materiais</t>
+  </si>
+  <si>
+    <t>Comprar Material</t>
+  </si>
+  <si>
+    <t>Setor Financeiro compra material</t>
+  </si>
+  <si>
+    <t>Setor Financeiro não compra material</t>
+  </si>
+  <si>
+    <t>Recrutador solicita contratação de funcionários</t>
+  </si>
+  <si>
+    <t>Avaliador avalia o candidato</t>
+  </si>
+  <si>
+    <t>Avaliador faz proposta ao candidato aprovado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Máquina confirma o processamento do cartão </t>
+  </si>
+  <si>
+    <t>Máquina retorna pagamento aprovado</t>
+  </si>
+  <si>
+    <t>Máquina retorna pagamento reprovado</t>
   </si>
   <si>
     <t>x(11)</t>
   </si>
   <si>
-    <t>Setor financeiro solicita compra de materiais</t>
-  </si>
-  <si>
-    <t>Comprar Mateiral</t>
-  </si>
-  <si>
-    <t>Candidatos participam do recrutamento.</t>
-  </si>
-  <si>
-    <t>Setor de RH abre vagas de recrutamento para trabalhar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cliente não responde as perguntas referente ao veiculo </t>
-  </si>
-  <si>
-    <t>Fornecedor de materiais não passa o orçamento</t>
-  </si>
-  <si>
-    <t>Setor financeiro não compra materiais</t>
-  </si>
-  <si>
     <t>x(12)</t>
   </si>
   <si>
-    <t>Processo Seletivo</t>
-  </si>
-  <si>
-    <t>Atendente solicita a avaliação para o Setor de Serviços</t>
-  </si>
-  <si>
-    <t>Cliente dá o retorno ao orçamento</t>
-  </si>
-  <si>
-    <t>Cliente não der o retorno do orçamento</t>
-  </si>
-  <si>
-    <t>Avaliador analisa cálculo de material</t>
-  </si>
-  <si>
-    <t>Avaliador finaliza a avaliação</t>
-  </si>
-  <si>
-    <t>Entrar em contato com cliente</t>
-  </si>
-  <si>
-    <t>Atendente entra em contato com o cliente para retirar seu veículo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Setor de Atendimento confirma a ordem de serviço </t>
-  </si>
-  <si>
-    <t>Setor de Atendimento não confirma a ordem de serviço</t>
-  </si>
-  <si>
-    <t>Atendente  não entra em contato com o cliente</t>
-  </si>
-  <si>
-    <t>x(14)</t>
-  </si>
-  <si>
-    <t>x(13)</t>
-  </si>
-  <si>
-    <t>Avaliador não finaliza a avaliação</t>
-  </si>
-  <si>
-    <t>x(21)</t>
-  </si>
-  <si>
-    <t>Pagamento no Cartão</t>
-  </si>
-  <si>
-    <t>Cliente confirma pagamento no cartão</t>
-  </si>
-  <si>
-    <t>Setor de Pagamento retorna pagamento aprovado</t>
-  </si>
-  <si>
-    <t>Setor de Pagamento confirma processamento do cartão</t>
-  </si>
-  <si>
-    <t>x(39)</t>
-  </si>
-  <si>
-    <t>x(40)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Confirmar pagamento </t>
-  </si>
-  <si>
-    <t>Cliente confirma a forma de pagamento</t>
-  </si>
-  <si>
-    <t>Cliente faz pagamento em dinheiro</t>
-  </si>
-  <si>
-    <t>Cliente confirma o serviço</t>
-  </si>
-  <si>
-    <t>x(22)</t>
-  </si>
-  <si>
-    <t>Cliente não confirma a forma  pagamento</t>
-  </si>
-  <si>
-    <t>x(22</t>
-  </si>
-  <si>
-    <t>x(25)</t>
-  </si>
-  <si>
-    <t>x(28)</t>
-  </si>
-  <si>
-    <t>x(29)</t>
-  </si>
-  <si>
-    <t>x(30)</t>
-  </si>
-  <si>
-    <t>x(33)</t>
-  </si>
-  <si>
-    <t>x(34)</t>
-  </si>
-  <si>
-    <t>x(35)</t>
-  </si>
-  <si>
-    <t>x(36)</t>
-  </si>
-  <si>
-    <t>Setor de Pagamento retorna pagamento não aprovado</t>
-  </si>
-  <si>
-    <t>x(41)</t>
-  </si>
-  <si>
-    <t>Cliente Solicita Serviço</t>
-  </si>
-  <si>
-    <t>Setor de Serviço envia a avaliação</t>
-  </si>
-  <si>
-    <t>Setor de Serviço não cria orçamento</t>
-  </si>
-  <si>
-    <t>Setor de Atendimento solicita a avaliação para o Setor de Serviço</t>
-  </si>
-  <si>
-    <t>Funileiro e Pintor iniciam o serviço</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Funileiro e Pintor finalizam o serviço e encaminham para o Setor de Atendimento </t>
-  </si>
-  <si>
-    <t>Setor de Atendimento não solicita a avaliação para o Setor de Serviço</t>
-  </si>
-  <si>
-    <t>Funileiro e Pintor não inicia serviço</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Funileiro e Pintor não finalizam a avaliação </t>
-  </si>
-  <si>
-    <t>Estoquista encaminha materiais para o setor de serviços</t>
-  </si>
-  <si>
-    <t>Estoquista não encaminha os materiais para o setor de serviços</t>
-  </si>
-  <si>
-    <t>Recrutadora  avalia o candidato</t>
-  </si>
-  <si>
-    <t>Gerente faz contratação de candidato.</t>
-  </si>
-  <si>
-    <t>Recrutadora não avalia o candidato</t>
-  </si>
-  <si>
-    <t>Gerente não faz a contração de candidato</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Funileiro e Pintor avaliam o veiculo </t>
+    <t>Cliente opta pagar no dinheiro</t>
+  </si>
+  <si>
+    <t>Cliente opta paga no cartão</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setor de Atendimento envia a ordem para o Setor de Serviço </t>
+  </si>
+  <si>
+    <t>Cliente faz confirmação de pagamento</t>
+  </si>
+  <si>
+    <t>Cliente não faz confirmação de pagamento</t>
+  </si>
+  <si>
+    <t>x(18)</t>
+  </si>
+  <si>
+    <t>x(26)</t>
+  </si>
+  <si>
+    <t>x(32)</t>
+  </si>
+  <si>
+    <t>x(37)</t>
+  </si>
+  <si>
+    <t>(x22)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">finalizam e enviam para o Setor de Atendimento </t>
+  </si>
+  <si>
+    <t>Setor de Atendimento não recebe</t>
+  </si>
+  <si>
+    <t>Gerente faz contratação de candidato</t>
   </si>
 </sst>
 </file>
@@ -315,13 +318,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -388,8 +390,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -449,11 +469,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -470,84 +527,176 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -837,14 +986,14 @@
   <dimension ref="A1:O46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:I12"/>
+      <selection activeCell="D24" sqref="D24:I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" customWidth="1"/>
     <col min="2" max="3" width="4.7109375" customWidth="1"/>
-    <col min="9" max="9" width="31.42578125" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" customWidth="1"/>
     <col min="10" max="10" width="10.42578125" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
     <col min="13" max="13" width="9.42578125" customWidth="1"/>
@@ -852,95 +1001,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13" t="s">
+      <c r="K1" s="23"/>
+      <c r="L1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="19"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="24"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="20"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="16" t="s">
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="K3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="L3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="16" t="s">
+      <c r="M3" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="18" t="s">
+      <c r="N3" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="18" t="s">
+      <c r="O3" s="21" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="19"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="22"/>
     </row>
     <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="D5" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
+      <c r="D5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2" t="s">
         <v>14</v>
@@ -951,19 +1100,19 @@
       <c r="O5" s="4"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
-      <c r="B6" s="12"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="9"/>
       <c r="C6" s="1">
         <v>2</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
+      <c r="D6" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="3" t="s">
@@ -974,19 +1123,19 @@
       <c r="O6" s="4"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
-      <c r="B7" s="12"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="9"/>
       <c r="C7" s="1">
         <v>3</v>
       </c>
-      <c r="D7" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
+      <c r="D7" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
       <c r="J7" s="2" t="s">
         <v>16</v>
       </c>
@@ -997,19 +1146,19 @@
       <c r="O7" s="4"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
-      <c r="B8" s="12"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="9"/>
       <c r="C8" s="1">
         <v>4</v>
       </c>
-      <c r="D8" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
+      <c r="D8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
       <c r="J8" s="2" t="s">
         <v>17</v>
       </c>
@@ -1020,21 +1169,21 @@
       <c r="O8" s="4"/>
     </row>
     <row r="9" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
-      <c r="B9" s="10" t="s">
+      <c r="A9" s="18"/>
+      <c r="B9" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="57">
         <v>5</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
+      <c r="D9" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="3"/>
@@ -1045,19 +1194,19 @@
       <c r="O9" s="4"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="5">
+      <c r="A10" s="18"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="57">
         <v>6</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
+      <c r="D10" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="3"/>
@@ -1068,25 +1217,25 @@
       <c r="O10" s="4"/>
     </row>
     <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="15" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="1">
         <v>7</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
+      <c r="D11" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
       <c r="J11" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="3"/>
@@ -1095,44 +1244,44 @@
       <c r="O11" s="4"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
-      <c r="B12" s="10"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="16"/>
       <c r="C12" s="1">
         <v>8</v>
       </c>
-      <c r="D12" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
+      <c r="D12" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="4"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
-      <c r="B13" s="10"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="16"/>
       <c r="C13" s="1">
         <v>9</v>
       </c>
-      <c r="D13" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
+      <c r="D13" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
       <c r="J13" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="3"/>
@@ -1141,44 +1290,44 @@
       <c r="O13" s="4"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
-      <c r="B14" s="10"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="16"/>
       <c r="C14" s="1">
         <v>10</v>
       </c>
-      <c r="D14" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
+      <c r="D14" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="36"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="4"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="21"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="5">
+      <c r="A15" s="11"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="1">
         <v>11</v>
       </c>
-      <c r="D15" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
+      <c r="D15" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
       <c r="J15" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="3"/>
@@ -1187,257 +1336,263 @@
       <c r="O15" s="4"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="21"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="1">
+      <c r="A16" s="11"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="5">
         <v>12</v>
       </c>
-      <c r="D16" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="D16" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="2"/>
       <c r="K16" s="2"/>
-      <c r="L16" s="3"/>
+      <c r="L16" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="4"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="21"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="1">
+    <row r="17" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="57">
         <v>13</v>
       </c>
-      <c r="D17" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="2" t="s">
-        <v>49</v>
-      </c>
+      <c r="D17" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
+      <c r="N17" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="O17" s="4"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="21"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="1">
+    <row r="18" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="57">
         <v>14</v>
       </c>
-      <c r="D18" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="D18" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
+      <c r="N18" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="O18" s="4"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="21"/>
-      <c r="B19" s="10" t="s">
-        <v>12</v>
+    <row r="19" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>11</v>
       </c>
       <c r="C19" s="5">
         <v>15</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="2"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="K19" s="2"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-      <c r="N19" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="N19" s="3"/>
       <c r="O19" s="4"/>
     </row>
-    <row r="20" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="21"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="1">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="5">
         <v>16</v>
       </c>
-      <c r="D20" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="2"/>
+      <c r="D20" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="K20" s="2"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
-      <c r="N20" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="N20" s="3"/>
       <c r="O20" s="4"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="21"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="1">
+    <row r="21" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="5">
         <v>17</v>
       </c>
-      <c r="D21" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="2"/>
+      <c r="D21" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="K21" s="2"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
-      <c r="N21" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="N21" s="3"/>
       <c r="O21" s="4"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="21"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="1">
+      <c r="A22" s="13"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="5">
         <v>18</v>
       </c>
-      <c r="D22" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="2"/>
+      <c r="D22" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="K22" s="2"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
-      <c r="N22" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="N22" s="3"/>
       <c r="O22" s="4"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="21"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="5">
+      <c r="A23" s="13"/>
+      <c r="B23" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="57">
         <v>19</v>
       </c>
-      <c r="D23" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
+      <c r="D23" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="O23" s="4"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="21"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="1">
+      <c r="A24" s="13"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="57">
         <v>20</v>
       </c>
-      <c r="D24" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
+      <c r="D24" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="O24" s="4"/>
     </row>
-    <row r="25" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="1">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="14"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="57">
         <v>21</v>
       </c>
-      <c r="D25" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
+      <c r="D25" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
       <c r="J25" s="2"/>
-      <c r="K25" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="K25" s="2"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
+      <c r="N25" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="O25" s="4"/>
     </row>
     <row r="26" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="27"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="1">
+      <c r="A26" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="5">
         <v>22</v>
       </c>
-      <c r="D26" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
+      <c r="D26" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
       <c r="J26" s="2" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="3"/>
@@ -1446,96 +1601,96 @@
       <c r="O26" s="4"/>
     </row>
     <row r="27" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="27"/>
-      <c r="B27" s="10"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="8"/>
       <c r="C27" s="5">
         <v>23</v>
       </c>
-      <c r="D27" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="2"/>
+      <c r="D27" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="K27" s="2"/>
-      <c r="L27" s="3" t="s">
-        <v>60</v>
-      </c>
+      <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="4"/>
     </row>
-    <row r="28" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="27"/>
-      <c r="B28" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="1">
+    <row r="28" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="30"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="5">
         <v>24</v>
       </c>
-      <c r="D28" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="2"/>
+      <c r="D28" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="K28" s="2"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
-      <c r="N28" s="3" t="s">
-        <v>62</v>
-      </c>
+      <c r="N28" s="3"/>
       <c r="O28" s="4"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="1">
+    <row r="29" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="30"/>
+      <c r="B29" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="57">
         <v>25</v>
       </c>
-      <c r="D29" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="D29" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="E29" s="51"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
+      <c r="N29" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="O29" s="4"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="29"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="1">
+    <row r="30" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="5">
         <v>26</v>
       </c>
-      <c r="D30" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
+      <c r="D30" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="42"/>
       <c r="J30" s="2" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="3"/>
@@ -1544,169 +1699,169 @@
       <c r="O30" s="4"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="29"/>
-      <c r="B31" s="10" t="s">
-        <v>12</v>
-      </c>
+      <c r="A31" s="49"/>
+      <c r="B31" s="17"/>
       <c r="C31" s="5">
         <v>27</v>
       </c>
-      <c r="D31" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="2"/>
+      <c r="D31" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="K31" s="2"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
-      <c r="N31" s="3" t="s">
-        <v>63</v>
-      </c>
+      <c r="N31" s="3"/>
       <c r="O31" s="4"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="29"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="1">
+      <c r="A32" s="49"/>
+      <c r="B32" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="57">
         <v>28</v>
       </c>
-      <c r="D32" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
+      <c r="D32" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="51"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="O32" s="4"/>
     </row>
-    <row r="33" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="1">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="50"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="57">
         <v>29</v>
       </c>
-      <c r="D33" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="2" t="s">
-        <v>49</v>
-      </c>
+      <c r="D33" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="51"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
+      <c r="N33" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="O33" s="4"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="28"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="1">
+    <row r="34" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="5">
         <v>30</v>
       </c>
-      <c r="D34" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="2" t="s">
+      <c r="D34" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="K34" s="2"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
       <c r="O34" s="4"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="28"/>
-      <c r="B35" s="12" t="s">
-        <v>12</v>
-      </c>
+      <c r="A35" s="31"/>
+      <c r="B35" s="8"/>
       <c r="C35" s="5">
         <v>31</v>
       </c>
-      <c r="D35" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="2"/>
+      <c r="D35" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="K35" s="2"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
-      <c r="N35" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="N35" s="3"/>
       <c r="O35" s="4"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="28"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="1">
+    <row r="36" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="31"/>
+      <c r="B36" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="57">
         <v>32</v>
       </c>
-      <c r="D36" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
+      <c r="D36" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="51"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
       <c r="N36" s="3" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="O36" s="4"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37" s="12" t="s">
+    <row r="37" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="5">
         <v>33</v>
       </c>
-      <c r="D37" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
+      <c r="D37" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2" t="s">
         <v>14</v>
@@ -1717,21 +1872,21 @@
       <c r="O37" s="4"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="1">
+      <c r="A38" s="32"/>
+      <c r="B38" s="55"/>
+      <c r="C38" s="5">
         <v>34</v>
       </c>
-      <c r="D38" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
+      <c r="D38" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
       <c r="J38" s="2" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="K38" s="2"/>
       <c r="L38" s="3"/>
@@ -1740,21 +1895,21 @@
       <c r="O38" s="4"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
-      <c r="B39" s="12"/>
+      <c r="A39" s="32"/>
+      <c r="B39" s="55"/>
       <c r="C39" s="5">
         <v>35</v>
       </c>
-      <c r="D39" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30"/>
+      <c r="D39" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="29"/>
       <c r="J39" s="2" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="3"/>
@@ -1763,21 +1918,21 @@
       <c r="O39" s="4"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="1">
+      <c r="A40" s="32"/>
+      <c r="B40" s="55"/>
+      <c r="C40" s="5">
         <v>36</v>
       </c>
-      <c r="D40" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
+      <c r="D40" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
       <c r="J40" s="2" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="K40" s="2"/>
       <c r="L40" s="3"/>
@@ -1785,97 +1940,97 @@
       <c r="N40" s="3"/>
       <c r="O40" s="4"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
-      <c r="B41" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41" s="1">
+    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="32"/>
+      <c r="B41" s="56"/>
+      <c r="C41" s="5">
         <v>37</v>
       </c>
-      <c r="D41" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="31"/>
-      <c r="I41" s="31"/>
+      <c r="D41" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
-      <c r="L41" s="3"/>
+      <c r="L41" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="M41" s="3"/>
-      <c r="N41" s="3" t="s">
-        <v>69</v>
-      </c>
+      <c r="N41" s="3"/>
       <c r="O41" s="4"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="1">
+    <row r="42" spans="1:15" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A42" s="32"/>
+      <c r="B42" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="57">
         <v>38</v>
       </c>
-      <c r="D42" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
+      <c r="D42" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="E42" s="59"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="59"/>
+      <c r="H42" s="59"/>
+      <c r="I42" s="60"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
       <c r="N42" s="3" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="O42" s="4"/>
     </row>
     <row r="43" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B43" s="12" t="s">
+      <c r="A43" s="62" t="s">
+        <v>30</v>
+      </c>
+      <c r="B43" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C43" s="5">
         <v>39</v>
       </c>
-      <c r="D43" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="E43" s="32"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="32"/>
-      <c r="I43" s="32"/>
+      <c r="D43" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
       <c r="L43" s="3" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
       <c r="O43" s="4"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="10"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="1">
+      <c r="A44" s="62"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="5">
         <v>40</v>
       </c>
-      <c r="D44" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="E44" s="32"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="32"/>
-      <c r="I44" s="32"/>
+      <c r="D44" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
       <c r="J44" s="2" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="K44" s="2"/>
       <c r="L44" s="3"/>
@@ -1884,21 +2039,21 @@
       <c r="O44" s="4"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="10"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="1">
+      <c r="A45" s="62"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="5">
         <v>41</v>
       </c>
-      <c r="D45" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="E45" s="32"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="32"/>
-      <c r="H45" s="32"/>
-      <c r="I45" s="32"/>
+      <c r="D45" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
       <c r="J45" s="2" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="K45" s="2"/>
       <c r="L45" s="3"/>
@@ -1907,77 +2062,75 @@
       <c r="O45" s="4"/>
     </row>
     <row r="46" spans="1:15" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A46" s="10"/>
-      <c r="B46" s="6" t="s">
+      <c r="A46" s="62"/>
+      <c r="B46" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="C46" s="8">
+      <c r="C46" s="57">
         <v>42</v>
       </c>
-      <c r="D46" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="E46" s="31"/>
-      <c r="F46" s="31"/>
-      <c r="G46" s="31"/>
-      <c r="H46" s="31"/>
-      <c r="I46" s="31"/>
+      <c r="D46" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="E46" s="51"/>
+      <c r="F46" s="51"/>
+      <c r="G46" s="51"/>
+      <c r="H46" s="51"/>
+      <c r="I46" s="51"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
       <c r="N46" s="3" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="O46" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="73">
-    <mergeCell ref="B11:B18"/>
-    <mergeCell ref="B19:B24"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="D20:I20"/>
+  <mergeCells count="74">
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="D15:I15"/>
+    <mergeCell ref="D16:I16"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="D17:I17"/>
     <mergeCell ref="D21:I21"/>
     <mergeCell ref="D22:I22"/>
+    <mergeCell ref="D23:I23"/>
     <mergeCell ref="D19:I19"/>
+    <mergeCell ref="D25:I25"/>
     <mergeCell ref="D24:I24"/>
-    <mergeCell ref="D23:I23"/>
-    <mergeCell ref="D16:I16"/>
-    <mergeCell ref="D17:I17"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="D39:I39"/>
-    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="A37:A42"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="D27:I27"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="D34:I34"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="D30:I30"/>
     <mergeCell ref="D33:I33"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="D42:I42"/>
-    <mergeCell ref="D25:I25"/>
-    <mergeCell ref="D27:I27"/>
-    <mergeCell ref="D28:I28"/>
-    <mergeCell ref="D29:I29"/>
-    <mergeCell ref="D30:I30"/>
     <mergeCell ref="D32:I32"/>
-    <mergeCell ref="D31:I31"/>
     <mergeCell ref="D40:I40"/>
     <mergeCell ref="D41:I41"/>
-    <mergeCell ref="D34:I34"/>
     <mergeCell ref="D35:I35"/>
     <mergeCell ref="D36:I36"/>
     <mergeCell ref="D37:I37"/>
     <mergeCell ref="D38:I38"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="D15:I15"/>
+    <mergeCell ref="D39:I39"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:N4"/>
     <mergeCell ref="D11:I11"/>
     <mergeCell ref="D12:I12"/>
-    <mergeCell ref="D13:I13"/>
     <mergeCell ref="D10:I10"/>
+    <mergeCell ref="D8:I8"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="A5:A10"/>
     <mergeCell ref="O1:O2"/>
@@ -1985,9 +2138,6 @@
     <mergeCell ref="B5:B8"/>
     <mergeCell ref="L1:N2"/>
     <mergeCell ref="J1:K2"/>
-    <mergeCell ref="A37:A42"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="B41:B42"/>
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:I4"/>
@@ -1997,15 +2147,21 @@
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="D6:I6"/>
     <mergeCell ref="D7:I7"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D26:I26"/>
-    <mergeCell ref="A11:A24"/>
+    <mergeCell ref="D13:I13"/>
     <mergeCell ref="D45:I45"/>
     <mergeCell ref="A43:A46"/>
     <mergeCell ref="D43:I43"/>
     <mergeCell ref="D44:I44"/>
     <mergeCell ref="D46:I46"/>
     <mergeCell ref="B43:B45"/>
+    <mergeCell ref="A11:A18"/>
+    <mergeCell ref="A19:A25"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="D42:I42"/>
+    <mergeCell ref="D26:I26"/>
+    <mergeCell ref="D28:I28"/>
+    <mergeCell ref="D29:I29"/>
+    <mergeCell ref="D31:I31"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Artefatos/17. Análise dos Eventos para cada Cenário.xlsx
+++ b/Artefatos/17. Análise dos Eventos para cada Cenário.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eron Bruce\Desktop\takai correções\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eron Bruce\Desktop\tcc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9045" windowHeight="7200"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7035"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -95,15 +95,9 @@
     <t>x(9)</t>
   </si>
   <si>
-    <t>Candidatos participam do recrutamento.</t>
-  </si>
-  <si>
     <t>Processo Seletivo</t>
   </si>
   <si>
-    <t>Atendente solicita a avaliação para o Setor de Serviços</t>
-  </si>
-  <si>
     <t>Cliente dá o retorno ao orçamento</t>
   </si>
   <si>
@@ -155,9 +149,6 @@
     <t>x(41)</t>
   </si>
   <si>
-    <t>Cliente Solicita Serviço</t>
-  </si>
-  <si>
     <t>Setor de Serviço envia a avaliação</t>
   </si>
   <si>
@@ -294,6 +285,15 @@
   </si>
   <si>
     <t>Gerente faz contratação de candidato</t>
+  </si>
+  <si>
+    <t>Atendente solicita a avaliação para o Setor de Serviço</t>
+  </si>
+  <si>
+    <t>Cliente solicita serviço</t>
+  </si>
+  <si>
+    <t>Candidatos participam do recrutamento</t>
   </si>
 </sst>
 </file>
@@ -527,17 +527,161 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -552,150 +696,6 @@
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -986,7 +986,7 @@
   <dimension ref="A1:O46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24:I24"/>
+      <selection activeCell="D40" sqref="D40:I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1001,95 +1001,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23" t="s">
+      <c r="K1" s="54"/>
+      <c r="L1" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="19"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="50"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="20"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="51"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23" t="s">
+      <c r="B3" s="54"/>
+      <c r="C3" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="25" t="s">
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="21" t="s">
+      <c r="K3" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="25" t="s">
+      <c r="L3" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="25" t="s">
+      <c r="M3" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="21" t="s">
+      <c r="N3" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="21" t="s">
+      <c r="O3" s="47" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="22"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="52"/>
     </row>
     <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="53" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
+      <c r="D5" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2" t="s">
         <v>14</v>
@@ -1100,19 +1100,19 @@
       <c r="O5" s="4"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="9"/>
+      <c r="A6" s="49"/>
+      <c r="B6" s="53"/>
       <c r="C6" s="1">
         <v>2</v>
       </c>
-      <c r="D6" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
+      <c r="D6" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="3" t="s">
@@ -1123,19 +1123,19 @@
       <c r="O6" s="4"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
-      <c r="B7" s="9"/>
+      <c r="A7" s="49"/>
+      <c r="B7" s="53"/>
       <c r="C7" s="1">
         <v>3</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
+      <c r="D7" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
       <c r="J7" s="2" t="s">
         <v>16</v>
       </c>
@@ -1146,19 +1146,19 @@
       <c r="O7" s="4"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
-      <c r="B8" s="9"/>
+      <c r="A8" s="49"/>
+      <c r="B8" s="53"/>
       <c r="C8" s="1">
         <v>4</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
+      <c r="D8" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
       <c r="J8" s="2" t="s">
         <v>17</v>
       </c>
@@ -1169,21 +1169,21 @@
       <c r="O8" s="4"/>
     </row>
     <row r="9" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
-      <c r="B9" s="45" t="s">
+      <c r="A9" s="49"/>
+      <c r="B9" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="57">
+      <c r="C9" s="10">
         <v>5</v>
       </c>
-      <c r="D9" s="51" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
+      <c r="D9" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="3"/>
@@ -1194,19 +1194,19 @@
       <c r="O9" s="4"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="57">
+      <c r="A10" s="49"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="10">
         <v>6</v>
       </c>
-      <c r="D10" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
+      <c r="D10" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="3"/>
@@ -1217,23 +1217,23 @@
       <c r="O10" s="4"/>
     </row>
     <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="1">
         <v>7</v>
       </c>
-      <c r="D11" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
+      <c r="D11" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
       <c r="J11" s="2" t="s">
         <v>16</v>
       </c>
@@ -1244,19 +1244,19 @@
       <c r="O11" s="4"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="16"/>
+      <c r="A12" s="59"/>
+      <c r="B12" s="36"/>
       <c r="C12" s="1">
         <v>8</v>
       </c>
-      <c r="D12" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
+      <c r="D12" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="3" t="s">
@@ -1267,19 +1267,19 @@
       <c r="O12" s="4"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="16"/>
+      <c r="A13" s="59"/>
+      <c r="B13" s="36"/>
       <c r="C13" s="1">
         <v>9</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
+      <c r="D13" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
       <c r="J13" s="2" t="s">
         <v>21</v>
       </c>
@@ -1290,19 +1290,19 @@
       <c r="O13" s="4"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="16"/>
+      <c r="A14" s="59"/>
+      <c r="B14" s="36"/>
       <c r="C14" s="1">
         <v>10</v>
       </c>
-      <c r="D14" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="36"/>
+      <c r="D14" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="15"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="3" t="s">
@@ -1313,19 +1313,19 @@
       <c r="O14" s="4"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="16"/>
+      <c r="A15" s="59"/>
+      <c r="B15" s="36"/>
       <c r="C15" s="1">
         <v>11</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
+      <c r="D15" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
       <c r="J15" s="2" t="s">
         <v>22</v>
       </c>
@@ -1336,19 +1336,19 @@
       <c r="O15" s="4"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="17"/>
+      <c r="A16" s="59"/>
+      <c r="B16" s="29"/>
       <c r="C16" s="5">
         <v>12</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
+      <c r="D16" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="3" t="s">
@@ -1359,21 +1359,21 @@
       <c r="O16" s="4"/>
     </row>
     <row r="17" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="43" t="s">
+      <c r="A17" s="59"/>
+      <c r="B17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="57">
+      <c r="C17" s="10">
         <v>13</v>
       </c>
-      <c r="D17" s="58" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="60"/>
+      <c r="D17" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="20"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="3"/>
@@ -1384,48 +1384,48 @@
       <c r="O17" s="4"/>
     </row>
     <row r="18" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="57">
+      <c r="A18" s="59"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="10">
         <v>14</v>
       </c>
-      <c r="D18" s="51" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
+      <c r="D18" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="O18" s="4"/>
     </row>
     <row r="19" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="15" t="s">
+      <c r="A19" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="5">
         <v>15</v>
       </c>
-      <c r="D19" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
+      <c r="D19" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
       <c r="J19" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K19" s="2"/>
       <c r="L19" s="3"/>
@@ -1434,21 +1434,21 @@
       <c r="O19" s="4"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="16"/>
+      <c r="A20" s="61"/>
+      <c r="B20" s="36"/>
       <c r="C20" s="5">
         <v>16</v>
       </c>
-      <c r="D20" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="39"/>
+      <c r="D20" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="25"/>
       <c r="J20" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="3"/>
@@ -1457,21 +1457,21 @@
       <c r="O20" s="4"/>
     </row>
     <row r="21" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="16"/>
+      <c r="A21" s="61"/>
+      <c r="B21" s="36"/>
       <c r="C21" s="5">
         <v>17</v>
       </c>
-      <c r="D21" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
+      <c r="D21" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
       <c r="J21" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K21" s="2"/>
       <c r="L21" s="3"/>
@@ -1480,21 +1480,21 @@
       <c r="O21" s="4"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="17"/>
+      <c r="A22" s="61"/>
+      <c r="B22" s="29"/>
       <c r="C22" s="5">
         <v>18</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
+      <c r="D22" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
       <c r="J22" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="3"/>
@@ -1503,94 +1503,94 @@
       <c r="O22" s="4"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="43" t="s">
+      <c r="A23" s="61"/>
+      <c r="B23" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="57">
+      <c r="C23" s="10">
         <v>19</v>
       </c>
-      <c r="D23" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
+      <c r="D23" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="O23" s="4"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="61"/>
-      <c r="C24" s="57">
+      <c r="A24" s="61"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="10">
         <v>20</v>
       </c>
-      <c r="D24" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
+      <c r="D24" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O24" s="4"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="57">
+      <c r="A25" s="62"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="10">
         <v>21</v>
       </c>
-      <c r="D25" s="51" t="s">
-        <v>88</v>
-      </c>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="51"/>
+      <c r="D25" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="O25" s="4"/>
     </row>
     <row r="26" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" s="8" t="s">
+      <c r="A26" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="27" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="5">
         <v>22</v>
       </c>
-      <c r="D26" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
+      <c r="D26" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
       <c r="J26" s="2" t="s">
         <v>18</v>
       </c>
@@ -1601,21 +1601,21 @@
       <c r="O26" s="4"/>
     </row>
     <row r="27" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="30"/>
-      <c r="B27" s="8"/>
+      <c r="A27" s="38"/>
+      <c r="B27" s="27"/>
       <c r="C27" s="5">
         <v>23</v>
       </c>
-      <c r="D27" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
+      <c r="D27" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
       <c r="J27" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="3"/>
@@ -1624,21 +1624,21 @@
       <c r="O27" s="4"/>
     </row>
     <row r="28" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="30"/>
-      <c r="B28" s="8"/>
+      <c r="A28" s="38"/>
+      <c r="B28" s="27"/>
       <c r="C28" s="5">
         <v>24</v>
       </c>
-      <c r="D28" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
+      <c r="D28" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
       <c r="J28" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="3"/>
@@ -1647,50 +1647,50 @@
       <c r="O28" s="4"/>
     </row>
     <row r="29" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="30"/>
-      <c r="B29" s="46" t="s">
+      <c r="A29" s="38"/>
+      <c r="B29" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="57">
+      <c r="C29" s="10">
         <v>25</v>
       </c>
-      <c r="D29" s="51" t="s">
-        <v>81</v>
-      </c>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="51"/>
+      <c r="D29" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O29" s="4"/>
     </row>
     <row r="30" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="48" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="15" t="s">
+      <c r="A30" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="5">
         <v>26</v>
       </c>
-      <c r="D30" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="42"/>
+      <c r="D30" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="44"/>
       <c r="J30" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="3"/>
@@ -1699,21 +1699,21 @@
       <c r="O30" s="4"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="49"/>
-      <c r="B31" s="17"/>
+      <c r="A31" s="31"/>
+      <c r="B31" s="29"/>
       <c r="C31" s="5">
         <v>27</v>
       </c>
-      <c r="D31" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
+      <c r="D31" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
       <c r="J31" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K31" s="2"/>
       <c r="L31" s="3"/>
@@ -1722,71 +1722,71 @@
       <c r="O31" s="4"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="49"/>
-      <c r="B32" s="45" t="s">
+      <c r="A32" s="31"/>
+      <c r="B32" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="57">
+      <c r="C32" s="10">
         <v>28</v>
       </c>
-      <c r="D32" s="51" t="s">
-        <v>64</v>
-      </c>
-      <c r="E32" s="51"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="51"/>
-      <c r="H32" s="51"/>
-      <c r="I32" s="51"/>
+      <c r="D32" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="O32" s="4"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="50"/>
-      <c r="B33" s="45"/>
-      <c r="C33" s="57">
+      <c r="A33" s="32"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="10">
         <v>29</v>
       </c>
-      <c r="D33" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="E33" s="51"/>
-      <c r="F33" s="51"/>
-      <c r="G33" s="51"/>
-      <c r="H33" s="51"/>
-      <c r="I33" s="51"/>
+      <c r="D33" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O33" s="4"/>
     </row>
     <row r="34" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="B34" s="8" t="s">
+      <c r="A34" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" s="27" t="s">
         <v>11</v>
       </c>
       <c r="C34" s="5">
         <v>30</v>
       </c>
-      <c r="D34" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
+      <c r="D34" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="40"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2" t="s">
         <v>14</v>
@@ -1797,21 +1797,21 @@
       <c r="O34" s="4"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="31"/>
-      <c r="B35" s="8"/>
+      <c r="A35" s="39"/>
+      <c r="B35" s="27"/>
       <c r="C35" s="5">
         <v>31</v>
       </c>
-      <c r="D35" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
+      <c r="D35" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="40"/>
       <c r="J35" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K35" s="2"/>
       <c r="L35" s="3"/>
@@ -1820,48 +1820,48 @@
       <c r="O35" s="4"/>
     </row>
     <row r="36" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="31"/>
-      <c r="B36" s="52" t="s">
+      <c r="A36" s="39"/>
+      <c r="B36" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C36" s="57">
+      <c r="C36" s="10">
         <v>32</v>
       </c>
-      <c r="D36" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="51"/>
-      <c r="I36" s="51"/>
+      <c r="D36" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
       <c r="N36" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="O36" s="4"/>
     </row>
     <row r="37" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="B37" s="54" t="s">
+      <c r="A37" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" s="33" t="s">
         <v>11</v>
       </c>
       <c r="C37" s="5">
         <v>33</v>
       </c>
-      <c r="D37" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="29"/>
+      <c r="D37" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="E37" s="40"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="40"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2" t="s">
         <v>14</v>
@@ -1872,21 +1872,21 @@
       <c r="O37" s="4"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="32"/>
-      <c r="B38" s="55"/>
+      <c r="A38" s="26"/>
+      <c r="B38" s="34"/>
       <c r="C38" s="5">
         <v>34</v>
       </c>
-      <c r="D38" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="29"/>
+      <c r="D38" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="E38" s="40"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="40"/>
       <c r="J38" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K38" s="2"/>
       <c r="L38" s="3"/>
@@ -1895,21 +1895,21 @@
       <c r="O38" s="4"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="32"/>
-      <c r="B39" s="55"/>
+      <c r="A39" s="26"/>
+      <c r="B39" s="34"/>
       <c r="C39" s="5">
         <v>35</v>
       </c>
-      <c r="D39" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="E39" s="29"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="29"/>
-      <c r="I39" s="29"/>
+      <c r="D39" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="E39" s="40"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="40"/>
+      <c r="I39" s="40"/>
       <c r="J39" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="3"/>
@@ -1918,21 +1918,21 @@
       <c r="O39" s="4"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="32"/>
-      <c r="B40" s="55"/>
+      <c r="A40" s="26"/>
+      <c r="B40" s="34"/>
       <c r="C40" s="5">
         <v>36</v>
       </c>
-      <c r="D40" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="29"/>
-      <c r="I40" s="29"/>
+      <c r="D40" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="E40" s="40"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="40"/>
       <c r="J40" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K40" s="2"/>
       <c r="L40" s="3"/>
@@ -1941,96 +1941,96 @@
       <c r="O40" s="4"/>
     </row>
     <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="32"/>
-      <c r="B41" s="56"/>
+      <c r="A41" s="26"/>
+      <c r="B41" s="35"/>
       <c r="C41" s="5">
         <v>37</v>
       </c>
-      <c r="D41" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="29"/>
+      <c r="D41" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
       <c r="L41" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
       <c r="O41" s="4"/>
     </row>
     <row r="42" spans="1:15" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A42" s="32"/>
-      <c r="B42" s="53" t="s">
+      <c r="A42" s="26"/>
+      <c r="B42" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C42" s="57">
+      <c r="C42" s="10">
         <v>38</v>
       </c>
-      <c r="D42" s="58" t="s">
-        <v>46</v>
-      </c>
-      <c r="E42" s="59"/>
-      <c r="F42" s="59"/>
-      <c r="G42" s="59"/>
-      <c r="H42" s="59"/>
-      <c r="I42" s="60"/>
+      <c r="D42" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="20"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
       <c r="N42" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="O42" s="4"/>
     </row>
     <row r="43" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="62" t="s">
-        <v>30</v>
-      </c>
-      <c r="B43" s="9" t="s">
+      <c r="A43" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="B43" s="53" t="s">
         <v>11</v>
       </c>
       <c r="C43" s="5">
         <v>39</v>
       </c>
-      <c r="D43" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
+      <c r="D43" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="E43" s="56"/>
+      <c r="F43" s="56"/>
+      <c r="G43" s="56"/>
+      <c r="H43" s="56"/>
+      <c r="I43" s="56"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
       <c r="L43" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
       <c r="O43" s="4"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="62"/>
-      <c r="B44" s="9"/>
+      <c r="A44" s="57"/>
+      <c r="B44" s="53"/>
       <c r="C44" s="5">
         <v>40</v>
       </c>
-      <c r="D44" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
+      <c r="D44" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" s="56"/>
+      <c r="F44" s="56"/>
+      <c r="G44" s="56"/>
+      <c r="H44" s="56"/>
+      <c r="I44" s="56"/>
       <c r="J44" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K44" s="2"/>
       <c r="L44" s="3"/>
@@ -2039,21 +2039,21 @@
       <c r="O44" s="4"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="62"/>
-      <c r="B45" s="9"/>
+      <c r="A45" s="57"/>
+      <c r="B45" s="53"/>
       <c r="C45" s="5">
         <v>41</v>
       </c>
-      <c r="D45" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
+      <c r="D45" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="E45" s="56"/>
+      <c r="F45" s="56"/>
+      <c r="G45" s="56"/>
+      <c r="H45" s="56"/>
+      <c r="I45" s="56"/>
       <c r="J45" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K45" s="2"/>
       <c r="L45" s="3"/>
@@ -2062,75 +2062,47 @@
       <c r="O45" s="4"/>
     </row>
     <row r="46" spans="1:15" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A46" s="62"/>
-      <c r="B46" s="47" t="s">
+      <c r="A46" s="57"/>
+      <c r="B46" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C46" s="57">
+      <c r="C46" s="10">
         <v>42</v>
       </c>
-      <c r="D46" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="E46" s="51"/>
-      <c r="F46" s="51"/>
-      <c r="G46" s="51"/>
-      <c r="H46" s="51"/>
-      <c r="I46" s="51"/>
+      <c r="D46" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
       <c r="N46" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="O46" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="D15:I15"/>
-    <mergeCell ref="D16:I16"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="D17:I17"/>
-    <mergeCell ref="D21:I21"/>
-    <mergeCell ref="D22:I22"/>
-    <mergeCell ref="D23:I23"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="D25:I25"/>
-    <mergeCell ref="D24:I24"/>
-    <mergeCell ref="D20:I20"/>
-    <mergeCell ref="A37:A42"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="B37:B41"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="D27:I27"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="D34:I34"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="D30:I30"/>
-    <mergeCell ref="D33:I33"/>
-    <mergeCell ref="D32:I32"/>
-    <mergeCell ref="D40:I40"/>
-    <mergeCell ref="D41:I41"/>
-    <mergeCell ref="D35:I35"/>
-    <mergeCell ref="D36:I36"/>
-    <mergeCell ref="D37:I37"/>
-    <mergeCell ref="D38:I38"/>
-    <mergeCell ref="D39:I39"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="D12:I12"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="D45:I45"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="D43:I43"/>
+    <mergeCell ref="D44:I44"/>
+    <mergeCell ref="D46:I46"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="A11:A18"/>
+    <mergeCell ref="A19:A25"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="D42:I42"/>
+    <mergeCell ref="D26:I26"/>
+    <mergeCell ref="D28:I28"/>
+    <mergeCell ref="D29:I29"/>
+    <mergeCell ref="D31:I31"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="A5:A10"/>
     <mergeCell ref="O1:O2"/>
@@ -2147,21 +2119,49 @@
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="D6:I6"/>
     <mergeCell ref="D7:I7"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="D45:I45"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="D43:I43"/>
-    <mergeCell ref="D44:I44"/>
-    <mergeCell ref="D46:I46"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="A11:A18"/>
-    <mergeCell ref="A19:A25"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="D42:I42"/>
-    <mergeCell ref="D26:I26"/>
-    <mergeCell ref="D28:I28"/>
-    <mergeCell ref="D29:I29"/>
-    <mergeCell ref="D31:I31"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="D12:I12"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D40:I40"/>
+    <mergeCell ref="D41:I41"/>
+    <mergeCell ref="D35:I35"/>
+    <mergeCell ref="D36:I36"/>
+    <mergeCell ref="D37:I37"/>
+    <mergeCell ref="D38:I38"/>
+    <mergeCell ref="D39:I39"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="D27:I27"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="D34:I34"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="D32:I32"/>
+    <mergeCell ref="A37:A42"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="D22:I22"/>
+    <mergeCell ref="D23:I23"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="D24:I24"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="D15:I15"/>
+    <mergeCell ref="D16:I16"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="D17:I17"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Artefatos/17. Análise dos Eventos para cada Cenário.xlsx
+++ b/Artefatos/17. Análise dos Eventos para cada Cenário.xlsx
@@ -128,9 +128,6 @@
     <t>x(22)</t>
   </si>
   <si>
-    <t>x(28)</t>
-  </si>
-  <si>
     <t>x(30)</t>
   </si>
   <si>
@@ -152,9 +149,6 @@
     <t>Setor de Serviço envia a avaliação</t>
   </si>
   <si>
-    <t>Setor de Serviço não cria orçamento</t>
-  </si>
-  <si>
     <t>Gerente não faz a contração de candidato</t>
   </si>
   <si>
@@ -269,9 +263,6 @@
     <t>x(26)</t>
   </si>
   <si>
-    <t>x(32)</t>
-  </si>
-  <si>
     <t>x(37)</t>
   </si>
   <si>
@@ -281,9 +272,6 @@
     <t xml:space="preserve">finalizam e enviam para o Setor de Atendimento </t>
   </si>
   <si>
-    <t>Setor de Atendimento não recebe</t>
-  </si>
-  <si>
     <t>Gerente faz contratação de candidato</t>
   </si>
   <si>
@@ -294,6 +282,18 @@
   </si>
   <si>
     <t>Candidatos participam do recrutamento</t>
+  </si>
+  <si>
+    <t>Setor de Serviço não envia a avaliação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não finalizam </t>
+  </si>
+  <si>
+    <t>x(27)</t>
+  </si>
+  <si>
+    <t>x(31)</t>
   </si>
 </sst>
 </file>
@@ -542,10 +542,151 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -556,147 +697,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -985,8 +985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40:I40"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="L44" sqref="L44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1001,95 +1001,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J1" s="54" t="s">
+      <c r="J1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54" t="s">
+      <c r="K1" s="34"/>
+      <c r="L1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="50"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="30"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="51"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="31"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54" t="s">
+      <c r="B3" s="34"/>
+      <c r="C3" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="55" t="s">
+      <c r="D3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="45" t="s">
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="47" t="s">
+      <c r="K3" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="45" t="s">
+      <c r="L3" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="45" t="s">
+      <c r="M3" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="47" t="s">
+      <c r="N3" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="47" t="s">
+      <c r="O3" s="32" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="54"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="52"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="33"/>
     </row>
     <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="15" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
+      <c r="D5" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2" t="s">
         <v>14</v>
@@ -1100,19 +1100,19 @@
       <c r="O5" s="4"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="49"/>
-      <c r="B6" s="53"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="15"/>
       <c r="C6" s="1">
         <v>2</v>
       </c>
-      <c r="D6" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
+      <c r="D6" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="3" t="s">
@@ -1123,19 +1123,19 @@
       <c r="O6" s="4"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="49"/>
-      <c r="B7" s="53"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="1">
         <v>3</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
+      <c r="D7" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
       <c r="J7" s="2" t="s">
         <v>16</v>
       </c>
@@ -1146,19 +1146,19 @@
       <c r="O7" s="4"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="49"/>
-      <c r="B8" s="53"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="1">
         <v>4</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
       <c r="J8" s="2" t="s">
         <v>17</v>
       </c>
@@ -1169,21 +1169,21 @@
       <c r="O8" s="4"/>
     </row>
     <row r="9" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="49"/>
-      <c r="B9" s="41" t="s">
+      <c r="A9" s="29"/>
+      <c r="B9" s="28" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="10">
         <v>5</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
+      <c r="D9" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="3"/>
@@ -1194,19 +1194,19 @@
       <c r="O9" s="4"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="49"/>
-      <c r="B10" s="41"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="28"/>
       <c r="C10" s="10">
         <v>6</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
+      <c r="D10" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="3"/>
@@ -1217,23 +1217,23 @@
       <c r="O10" s="4"/>
     </row>
     <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="58" t="s">
+      <c r="A11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="21" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="1">
         <v>7</v>
       </c>
-      <c r="D11" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
+      <c r="D11" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
       <c r="J11" s="2" t="s">
         <v>16</v>
       </c>
@@ -1244,19 +1244,19 @@
       <c r="O11" s="4"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="59"/>
-      <c r="B12" s="36"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="22"/>
       <c r="C12" s="1">
         <v>8</v>
       </c>
-      <c r="D12" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
+      <c r="D12" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="3" t="s">
@@ -1267,19 +1267,19 @@
       <c r="O12" s="4"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="59"/>
-      <c r="B13" s="36"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="22"/>
       <c r="C13" s="1">
         <v>9</v>
       </c>
-      <c r="D13" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
+      <c r="D13" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
       <c r="J13" s="2" t="s">
         <v>21</v>
       </c>
@@ -1290,19 +1290,19 @@
       <c r="O13" s="4"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="59"/>
-      <c r="B14" s="36"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="1">
         <v>10</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="15"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="62"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="3" t="s">
@@ -1313,19 +1313,19 @@
       <c r="O14" s="4"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="59"/>
-      <c r="B15" s="36"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="22"/>
       <c r="C15" s="1">
         <v>11</v>
       </c>
-      <c r="D15" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
+      <c r="D15" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
       <c r="J15" s="2" t="s">
         <v>22</v>
       </c>
@@ -1336,19 +1336,19 @@
       <c r="O15" s="4"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="59"/>
-      <c r="B16" s="29"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="5">
         <v>12</v>
       </c>
-      <c r="D16" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
+      <c r="D16" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="3" t="s">
@@ -1359,21 +1359,21 @@
       <c r="O16" s="4"/>
     </row>
     <row r="17" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="59"/>
-      <c r="B17" s="16" t="s">
+      <c r="A17" s="17"/>
+      <c r="B17" s="40" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="10">
         <v>13</v>
       </c>
-      <c r="D17" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="20"/>
+      <c r="D17" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="26"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="3"/>
@@ -1384,48 +1384,48 @@
       <c r="O17" s="4"/>
     </row>
     <row r="18" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="59"/>
-      <c r="B18" s="17"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="42"/>
       <c r="C18" s="10">
         <v>14</v>
       </c>
-      <c r="D18" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
+      <c r="D18" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O18" s="4"/>
     </row>
     <row r="19" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="60" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="28" t="s">
+      <c r="A19" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="21" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="5">
         <v>15</v>
       </c>
-      <c r="D19" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
+      <c r="D19" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
       <c r="J19" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K19" s="2"/>
       <c r="L19" s="3"/>
@@ -1434,21 +1434,21 @@
       <c r="O19" s="4"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="61"/>
-      <c r="B20" s="36"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="22"/>
       <c r="C20" s="5">
         <v>16</v>
       </c>
-      <c r="D20" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="25"/>
+      <c r="D20" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="59"/>
       <c r="J20" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="3"/>
@@ -1457,19 +1457,19 @@
       <c r="O20" s="4"/>
     </row>
     <row r="21" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="61"/>
-      <c r="B21" s="36"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="22"/>
       <c r="C21" s="5">
         <v>17</v>
       </c>
-      <c r="D21" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
+      <c r="D21" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
       <c r="J21" s="2" t="s">
         <v>33</v>
       </c>
@@ -1480,21 +1480,21 @@
       <c r="O21" s="4"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="61"/>
-      <c r="B22" s="29"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="5">
         <v>18</v>
       </c>
-      <c r="D22" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
+      <c r="D22" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
       <c r="J22" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="3"/>
@@ -1503,94 +1503,94 @@
       <c r="O22" s="4"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="61"/>
-      <c r="B23" s="16" t="s">
+      <c r="A23" s="19"/>
+      <c r="B23" s="40" t="s">
         <v>12</v>
       </c>
       <c r="C23" s="10">
         <v>19</v>
       </c>
-      <c r="D23" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
+      <c r="D23" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O23" s="4"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="61"/>
-      <c r="B24" s="37"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="41"/>
       <c r="C24" s="10">
         <v>20</v>
       </c>
-      <c r="D24" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
+      <c r="D24" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O24" s="4"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="62"/>
-      <c r="B25" s="17"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="42"/>
       <c r="C25" s="10">
         <v>21</v>
       </c>
-      <c r="D25" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
+      <c r="D25" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O25" s="4"/>
     </row>
     <row r="26" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="38" t="s">
+      <c r="A26" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="45" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="5">
         <v>22</v>
       </c>
-      <c r="D26" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
+      <c r="D26" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
       <c r="J26" s="2" t="s">
         <v>18</v>
       </c>
@@ -1601,19 +1601,19 @@
       <c r="O26" s="4"/>
     </row>
     <row r="27" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="38"/>
-      <c r="B27" s="27"/>
+      <c r="A27" s="43"/>
+      <c r="B27" s="45"/>
       <c r="C27" s="5">
         <v>23</v>
       </c>
-      <c r="D27" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
+      <c r="D27" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
       <c r="J27" s="2" t="s">
         <v>33</v>
       </c>
@@ -1624,19 +1624,19 @@
       <c r="O27" s="4"/>
     </row>
     <row r="28" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="38"/>
-      <c r="B28" s="27"/>
+      <c r="A28" s="43"/>
+      <c r="B28" s="45"/>
       <c r="C28" s="5">
         <v>24</v>
       </c>
-      <c r="D28" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
+      <c r="D28" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
       <c r="J28" s="2" t="s">
         <v>33</v>
       </c>
@@ -1647,21 +1647,21 @@
       <c r="O28" s="4"/>
     </row>
     <row r="29" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="38"/>
+      <c r="A29" s="43"/>
       <c r="B29" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C29" s="10">
         <v>25</v>
       </c>
-      <c r="D29" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
+      <c r="D29" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="3"/>
@@ -1672,25 +1672,25 @@
       <c r="O29" s="4"/>
     </row>
     <row r="30" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="30" t="s">
+      <c r="A30" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="21" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="5">
         <v>26</v>
       </c>
-      <c r="D30" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="44"/>
+      <c r="D30" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="48"/>
       <c r="J30" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="3"/>
@@ -1699,21 +1699,21 @@
       <c r="O30" s="4"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="31"/>
-      <c r="B31" s="29"/>
+      <c r="A31" s="51"/>
+      <c r="B31" s="23"/>
       <c r="C31" s="5">
         <v>27</v>
       </c>
-      <c r="D31" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
+      <c r="D31" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
       <c r="J31" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K31" s="2"/>
       <c r="L31" s="3"/>
@@ -1722,71 +1722,71 @@
       <c r="O31" s="4"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="31"/>
-      <c r="B32" s="41" t="s">
+      <c r="A32" s="51"/>
+      <c r="B32" s="28" t="s">
         <v>12</v>
       </c>
       <c r="C32" s="10">
         <v>28</v>
       </c>
-      <c r="D32" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
+      <c r="D32" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O32" s="4"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="32"/>
-      <c r="B33" s="41"/>
+      <c r="A33" s="52"/>
+      <c r="B33" s="28"/>
       <c r="C33" s="10">
         <v>29</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D33" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="O33" s="4"/>
     </row>
     <row r="34" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="B34" s="27" t="s">
+      <c r="A34" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" s="45" t="s">
         <v>11</v>
       </c>
       <c r="C34" s="5">
         <v>30</v>
       </c>
-      <c r="D34" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="E34" s="40"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="40"/>
+      <c r="D34" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2" t="s">
         <v>14</v>
@@ -1797,21 +1797,21 @@
       <c r="O34" s="4"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="39"/>
-      <c r="B35" s="27"/>
+      <c r="A35" s="44"/>
+      <c r="B35" s="45"/>
       <c r="C35" s="5">
         <v>31</v>
       </c>
-      <c r="D35" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="E35" s="40"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="40"/>
-      <c r="I35" s="40"/>
+      <c r="D35" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
       <c r="J35" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K35" s="2"/>
       <c r="L35" s="3"/>
@@ -1820,48 +1820,48 @@
       <c r="O35" s="4"/>
     </row>
     <row r="36" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="39"/>
+      <c r="A36" s="44"/>
       <c r="B36" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C36" s="10">
         <v>32</v>
       </c>
-      <c r="D36" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
+      <c r="D36" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
       <c r="N36" s="3" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="O36" s="4"/>
     </row>
     <row r="37" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="26" t="s">
+      <c r="A37" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="B37" s="33" t="s">
+      <c r="B37" s="53" t="s">
         <v>11</v>
       </c>
       <c r="C37" s="5">
         <v>33</v>
       </c>
-      <c r="D37" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="E37" s="40"/>
-      <c r="F37" s="40"/>
-      <c r="G37" s="40"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="40"/>
+      <c r="D37" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2" t="s">
         <v>14</v>
@@ -1872,21 +1872,21 @@
       <c r="O37" s="4"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="26"/>
-      <c r="B38" s="34"/>
+      <c r="A38" s="49"/>
+      <c r="B38" s="54"/>
       <c r="C38" s="5">
         <v>34</v>
       </c>
-      <c r="D38" s="40" t="s">
-        <v>89</v>
-      </c>
-      <c r="E38" s="40"/>
-      <c r="F38" s="40"/>
-      <c r="G38" s="40"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="40"/>
+      <c r="D38" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
       <c r="J38" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K38" s="2"/>
       <c r="L38" s="3"/>
@@ -1895,21 +1895,21 @@
       <c r="O38" s="4"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="26"/>
-      <c r="B39" s="34"/>
+      <c r="A39" s="49"/>
+      <c r="B39" s="54"/>
       <c r="C39" s="5">
         <v>35</v>
       </c>
-      <c r="D39" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="E39" s="40"/>
-      <c r="F39" s="40"/>
-      <c r="G39" s="40"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="40"/>
+      <c r="D39" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
       <c r="J39" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="3"/>
@@ -1918,21 +1918,21 @@
       <c r="O39" s="4"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="26"/>
-      <c r="B40" s="34"/>
+      <c r="A40" s="49"/>
+      <c r="B40" s="54"/>
       <c r="C40" s="5">
         <v>36</v>
       </c>
-      <c r="D40" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="E40" s="40"/>
-      <c r="F40" s="40"/>
-      <c r="G40" s="40"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="40"/>
+      <c r="D40" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
       <c r="J40" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K40" s="2"/>
       <c r="L40" s="3"/>
@@ -1941,94 +1941,94 @@
       <c r="O40" s="4"/>
     </row>
     <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="26"/>
-      <c r="B41" s="35"/>
+      <c r="A41" s="49"/>
+      <c r="B41" s="55"/>
       <c r="C41" s="5">
         <v>37</v>
       </c>
-      <c r="D41" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
+      <c r="D41" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
       <c r="L41" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
       <c r="O41" s="4"/>
     </row>
     <row r="42" spans="1:15" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A42" s="26"/>
+      <c r="A42" s="49"/>
       <c r="B42" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C42" s="10">
         <v>38</v>
       </c>
-      <c r="D42" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="20"/>
+      <c r="D42" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="26"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
       <c r="N42" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="O42" s="4"/>
     </row>
     <row r="43" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="57" t="s">
+      <c r="A43" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B43" s="53" t="s">
+      <c r="B43" s="15" t="s">
         <v>11</v>
       </c>
       <c r="C43" s="5">
         <v>39</v>
       </c>
-      <c r="D43" s="56" t="s">
+      <c r="D43" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E43" s="56"/>
-      <c r="F43" s="56"/>
-      <c r="G43" s="56"/>
-      <c r="H43" s="56"/>
-      <c r="I43" s="56"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
       <c r="L43" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
       <c r="O43" s="4"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="57"/>
-      <c r="B44" s="53"/>
+      <c r="A44" s="13"/>
+      <c r="B44" s="15"/>
       <c r="C44" s="5">
         <v>40</v>
       </c>
-      <c r="D44" s="56" t="s">
-        <v>69</v>
-      </c>
-      <c r="E44" s="56"/>
-      <c r="F44" s="56"/>
-      <c r="G44" s="56"/>
-      <c r="H44" s="56"/>
-      <c r="I44" s="56"/>
+      <c r="D44" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
       <c r="J44" s="2" t="s">
         <v>30</v>
       </c>
@@ -2039,19 +2039,19 @@
       <c r="O44" s="4"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="57"/>
-      <c r="B45" s="53"/>
+      <c r="A45" s="13"/>
+      <c r="B45" s="15"/>
       <c r="C45" s="5">
         <v>41</v>
       </c>
-      <c r="D45" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="E45" s="56"/>
-      <c r="F45" s="56"/>
-      <c r="G45" s="56"/>
-      <c r="H45" s="56"/>
-      <c r="I45" s="56"/>
+      <c r="D45" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
       <c r="J45" s="2" t="s">
         <v>31</v>
       </c>
@@ -2062,47 +2062,74 @@
       <c r="O45" s="4"/>
     </row>
     <row r="46" spans="1:15" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A46" s="57"/>
+      <c r="A46" s="13"/>
       <c r="B46" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C46" s="10">
         <v>42</v>
       </c>
-      <c r="D46" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
+      <c r="D46" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
       <c r="N46" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O46" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="D45:I45"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="D43:I43"/>
-    <mergeCell ref="D44:I44"/>
-    <mergeCell ref="D46:I46"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="A11:A18"/>
-    <mergeCell ref="A19:A25"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="D42:I42"/>
-    <mergeCell ref="D26:I26"/>
-    <mergeCell ref="D28:I28"/>
-    <mergeCell ref="D29:I29"/>
-    <mergeCell ref="D31:I31"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="D17:I17"/>
+    <mergeCell ref="D24:I24"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="D15:I15"/>
+    <mergeCell ref="D16:I16"/>
+    <mergeCell ref="A37:A42"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="D27:I27"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="D34:I34"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="D32:I32"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="D22:I22"/>
+    <mergeCell ref="D23:I23"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="D41:I41"/>
+    <mergeCell ref="D35:I35"/>
+    <mergeCell ref="D36:I36"/>
+    <mergeCell ref="D37:I37"/>
+    <mergeCell ref="D38:I38"/>
+    <mergeCell ref="D39:I39"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="D12:I12"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="D8:I8"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="A5:A10"/>
     <mergeCell ref="O1:O2"/>
@@ -2119,49 +2146,22 @@
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="D6:I6"/>
     <mergeCell ref="D7:I7"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="D12:I12"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="D45:I45"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="D43:I43"/>
+    <mergeCell ref="D44:I44"/>
+    <mergeCell ref="D46:I46"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="A11:A18"/>
+    <mergeCell ref="A19:A25"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="D42:I42"/>
+    <mergeCell ref="D26:I26"/>
+    <mergeCell ref="D28:I28"/>
+    <mergeCell ref="D29:I29"/>
+    <mergeCell ref="D31:I31"/>
     <mergeCell ref="D40:I40"/>
-    <mergeCell ref="D41:I41"/>
-    <mergeCell ref="D35:I35"/>
-    <mergeCell ref="D36:I36"/>
-    <mergeCell ref="D37:I37"/>
-    <mergeCell ref="D38:I38"/>
-    <mergeCell ref="D39:I39"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="D27:I27"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="D34:I34"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="D30:I30"/>
-    <mergeCell ref="D33:I33"/>
-    <mergeCell ref="D32:I32"/>
-    <mergeCell ref="A37:A42"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="B37:B41"/>
-    <mergeCell ref="D21:I21"/>
-    <mergeCell ref="D22:I22"/>
-    <mergeCell ref="D23:I23"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="D25:I25"/>
-    <mergeCell ref="D24:I24"/>
-    <mergeCell ref="D20:I20"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="D15:I15"/>
-    <mergeCell ref="D16:I16"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="D17:I17"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Artefatos/17. Análise dos Eventos para cada Cenário.xlsx
+++ b/Artefatos/17. Análise dos Eventos para cada Cenário.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="91">
   <si>
     <t>Capacidades</t>
   </si>
@@ -107,33 +107,18 @@
     <t>Entrar em contato com cliente</t>
   </si>
   <si>
-    <t>Atendente  não entra em contato com o cliente</t>
-  </si>
-  <si>
     <t>Pagamento no Cartão</t>
   </si>
   <si>
     <t>Cliente confirma pagamento no cartão</t>
   </si>
   <si>
-    <t>x(39)</t>
-  </si>
-  <si>
     <t>x(40)</t>
   </si>
   <si>
     <t xml:space="preserve">Confirmar pagamento </t>
   </si>
   <si>
-    <t>x(22)</t>
-  </si>
-  <si>
-    <t>x(30)</t>
-  </si>
-  <si>
-    <t>x(33)</t>
-  </si>
-  <si>
     <t>x(34)</t>
   </si>
   <si>
@@ -167,30 +152,15 @@
     <t>Cliente envia resposta</t>
   </si>
   <si>
-    <t>Fornecedor de Materiais envia orçamento</t>
-  </si>
-  <si>
     <t>Avaliador finaliza avaliação</t>
   </si>
   <si>
-    <t>Fornecedor de Materiais não enviou orçamento</t>
-  </si>
-  <si>
     <t>Funileiro e Pintor iniciam o serviço</t>
   </si>
   <si>
-    <t>Setor de Atendimento não enviou a ordem de serviço</t>
-  </si>
-  <si>
-    <t>Funileiro e Pintor não iniciam o serviço</t>
-  </si>
-  <si>
     <t>Setor de Atendimento não solicita avaliação</t>
   </si>
   <si>
-    <t>x(15)</t>
-  </si>
-  <si>
     <t>x(17)</t>
   </si>
   <si>
@@ -257,18 +227,9 @@
     <t>Cliente não faz confirmação de pagamento</t>
   </si>
   <si>
-    <t>x(18)</t>
-  </si>
-  <si>
-    <t>x(26)</t>
-  </si>
-  <si>
     <t>x(37)</t>
   </si>
   <si>
-    <t>(x22)</t>
-  </si>
-  <si>
     <t xml:space="preserve">finalizam e enviam para o Setor de Atendimento </t>
   </si>
   <si>
@@ -287,20 +248,62 @@
     <t>Setor de Serviço não envia a avaliação</t>
   </si>
   <si>
-    <t xml:space="preserve">Não finalizam </t>
-  </si>
-  <si>
     <t>x(27)</t>
   </si>
   <si>
     <t>x(31)</t>
+  </si>
+  <si>
+    <t>Setor de Atendimento não envia ordem de serviço</t>
+  </si>
+  <si>
+    <t>Cliente não envia respostas</t>
+  </si>
+  <si>
+    <t>Fornecedor de materiais envia orçamento</t>
+  </si>
+  <si>
+    <t>Fornecedor de materiais não envia orçamento</t>
+  </si>
+  <si>
+    <t>Avaliador não finaliza a avaliação</t>
+  </si>
+  <si>
+    <t>finalizam mas não envia para o Setor de Atendimento</t>
+  </si>
+  <si>
+    <t>Atendente não entra em contato com o cliente</t>
+  </si>
+  <si>
+    <t>x(23)</t>
+  </si>
+  <si>
+    <t>x(19)</t>
+  </si>
+  <si>
+    <t>x(20)</t>
+  </si>
+  <si>
+    <t>x(28)</t>
+  </si>
+  <si>
+    <t>x(32)</t>
+  </si>
+  <si>
+    <t>x(38)</t>
+  </si>
+  <si>
+    <t>(x23)</t>
+  </si>
+  <si>
+    <t>x(42)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -318,6 +321,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -409,7 +420,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -458,59 +469,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -528,175 +491,97 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -983,10 +868,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O46"/>
+  <dimension ref="A1:O47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="L44" sqref="L44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1001,95 +886,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34" t="s">
+      <c r="K1" s="22"/>
+      <c r="L1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="30"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="19"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="31"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="20"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="36" t="s">
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="32" t="s">
+      <c r="K3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="36" t="s">
+      <c r="L3" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="36" t="s">
+      <c r="M3" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="32" t="s">
+      <c r="N3" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="32" t="s">
+      <c r="O3" s="30" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="33"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
     </row>
     <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="21" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
+      <c r="D5" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2" t="s">
         <v>14</v>
@@ -1100,19 +985,19 @@
       <c r="O5" s="4"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
-      <c r="B6" s="15"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="1">
         <v>2</v>
       </c>
-      <c r="D6" s="38" t="s">
-        <v>83</v>
-      </c>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
+      <c r="D6" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="3" t="s">
@@ -1123,19 +1008,19 @@
       <c r="O6" s="4"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
-      <c r="B7" s="15"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="1">
         <v>3</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
+      <c r="D7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
       <c r="J7" s="2" t="s">
         <v>16</v>
       </c>
@@ -1146,19 +1031,19 @@
       <c r="O7" s="4"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
-      <c r="B8" s="15"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="1">
         <v>4</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
       <c r="J8" s="2" t="s">
         <v>17</v>
       </c>
@@ -1169,21 +1054,21 @@
       <c r="O8" s="4"/>
     </row>
     <row r="9" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
-      <c r="B9" s="28" t="s">
+      <c r="A9" s="18"/>
+      <c r="B9" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="7">
         <v>5</v>
       </c>
-      <c r="D9" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
+      <c r="D9" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="3"/>
@@ -1194,19 +1079,19 @@
       <c r="O9" s="4"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="10">
+      <c r="A10" s="18"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="7">
         <v>6</v>
       </c>
-      <c r="D10" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
+      <c r="D10" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="3"/>
@@ -1217,23 +1102,23 @@
       <c r="O10" s="4"/>
     </row>
     <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="1">
         <v>7</v>
       </c>
-      <c r="D11" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
+      <c r="D11" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
       <c r="J11" s="2" t="s">
         <v>16</v>
       </c>
@@ -1244,19 +1129,19 @@
       <c r="O11" s="4"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="22"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="11"/>
       <c r="C12" s="1">
         <v>8</v>
       </c>
-      <c r="D12" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
+      <c r="D12" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="3" t="s">
@@ -1267,19 +1152,19 @@
       <c r="O12" s="4"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="22"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="11"/>
       <c r="C13" s="1">
         <v>9</v>
       </c>
-      <c r="D13" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
+      <c r="D13" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
       <c r="J13" s="2" t="s">
         <v>21</v>
       </c>
@@ -1290,19 +1175,19 @@
       <c r="O13" s="4"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="22"/>
+      <c r="A14" s="31"/>
+      <c r="B14" s="11"/>
       <c r="C14" s="1">
         <v>10</v>
       </c>
-      <c r="D14" s="60" t="s">
+      <c r="D14" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="62"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="3" t="s">
@@ -1313,19 +1198,19 @@
       <c r="O14" s="4"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="22"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="11"/>
       <c r="C15" s="1">
         <v>11</v>
       </c>
-      <c r="D15" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
+      <c r="D15" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
       <c r="J15" s="2" t="s">
         <v>22</v>
       </c>
@@ -1336,19 +1221,19 @@
       <c r="O15" s="4"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="23"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="11"/>
       <c r="C16" s="5">
         <v>12</v>
       </c>
-      <c r="D16" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
+      <c r="D16" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="3" t="s">
@@ -1359,21 +1244,21 @@
       <c r="O16" s="4"/>
     </row>
     <row r="17" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
-      <c r="B17" s="40" t="s">
+      <c r="A17" s="31"/>
+      <c r="B17" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="7">
         <v>13</v>
       </c>
-      <c r="D17" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="26"/>
+      <c r="D17" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="3"/>
@@ -1383,95 +1268,95 @@
       </c>
       <c r="O17" s="4"/>
     </row>
-    <row r="18" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="10">
+    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="31"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="7">
         <v>14</v>
       </c>
-      <c r="D18" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
+      <c r="D18" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="O18" s="4"/>
     </row>
     <row r="19" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="5">
+      <c r="A19" s="31"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="7">
         <v>15</v>
       </c>
-      <c r="D19" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="D19" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
+      <c r="N19" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="O19" s="4"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="5">
+    <row r="20" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="31"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="7">
         <v>16</v>
       </c>
-      <c r="D20" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="2" t="s">
-        <v>54</v>
-      </c>
+      <c r="D20" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
+      <c r="N20" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="O20" s="4"/>
     </row>
     <row r="21" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="5">
+      <c r="A21" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="1">
         <v>17</v>
       </c>
-      <c r="D21" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
+      <c r="D21" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
       <c r="J21" s="2" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="K21" s="2"/>
       <c r="L21" s="3"/>
@@ -1480,21 +1365,21 @@
       <c r="O21" s="4"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
-      <c r="B22" s="23"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="11"/>
       <c r="C22" s="5">
         <v>18</v>
       </c>
-      <c r="D22" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
+      <c r="D22" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
       <c r="J22" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="3"/>
@@ -1502,120 +1387,120 @@
       <c r="N22" s="3"/>
       <c r="O22" s="4"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
-      <c r="B23" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="10">
+    <row r="23" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="32"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="27">
         <v>19</v>
       </c>
-      <c r="D23" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="2"/>
+      <c r="D23" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="K23" s="2"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
-      <c r="N23" s="3" t="s">
-        <v>54</v>
-      </c>
+      <c r="N23" s="3"/>
       <c r="O23" s="4"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="10">
+      <c r="A24" s="32"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="1">
         <v>20</v>
       </c>
-      <c r="D24" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="2"/>
+      <c r="D24" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="K24" s="2"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
-      <c r="N24" s="3" t="s">
-        <v>55</v>
-      </c>
+      <c r="N24" s="3"/>
       <c r="O24" s="4"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="20"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="10">
+    <row r="25" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="32"/>
+      <c r="B25" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="7">
         <v>21</v>
       </c>
-      <c r="D25" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
+      <c r="D25" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="O25" s="4"/>
     </row>
-    <row r="26" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="5">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="32"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="7">
         <v>22</v>
       </c>
-      <c r="D26" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="D26" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
+      <c r="N26" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="O26" s="4"/>
     </row>
-    <row r="27" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="43"/>
-      <c r="B27" s="45"/>
+    <row r="27" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>11</v>
+      </c>
       <c r="C27" s="5">
         <v>23</v>
       </c>
-      <c r="D27" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
+      <c r="D27" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
       <c r="J27" s="2" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="3"/>
@@ -1624,21 +1509,21 @@
       <c r="O27" s="4"/>
     </row>
     <row r="28" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="43"/>
-      <c r="B28" s="45"/>
-      <c r="C28" s="5">
+      <c r="A28" s="12"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="27">
         <v>24</v>
       </c>
-      <c r="D28" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
+      <c r="D28" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
       <c r="J28" s="2" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="3"/>
@@ -1646,74 +1531,74 @@
       <c r="N28" s="3"/>
       <c r="O28" s="4"/>
     </row>
-    <row r="29" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="43"/>
-      <c r="B29" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="10">
+    <row r="29" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="12"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="1">
         <v>25</v>
       </c>
-      <c r="D29" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="2"/>
+      <c r="D29" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="K29" s="2"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
-      <c r="N29" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="N29" s="3"/>
       <c r="O29" s="4"/>
     </row>
-    <row r="30" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="50" t="s">
+    <row r="30" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="12"/>
+      <c r="B30" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="7">
         <v>26</v>
       </c>
-      <c r="B30" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="5">
-        <v>26</v>
-      </c>
-      <c r="D30" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="48"/>
-      <c r="J30" s="2" t="s">
-        <v>77</v>
-      </c>
+      <c r="D30" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
+      <c r="N30" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="O30" s="4"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="51"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="5">
+    <row r="31" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="1">
         <v>27</v>
       </c>
-      <c r="D31" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
+      <c r="D31" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
       <c r="J31" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K31" s="2"/>
       <c r="L31" s="3"/>
@@ -1721,195 +1606,195 @@
       <c r="N31" s="3"/>
       <c r="O31" s="4"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="51"/>
-      <c r="B32" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="10">
+    <row r="32" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="33"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="5">
         <v>28</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
-      <c r="J32" s="2"/>
+      <c r="J32" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="K32" s="2"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
-      <c r="N32" s="3" t="s">
-        <v>78</v>
-      </c>
+      <c r="N32" s="3"/>
       <c r="O32" s="4"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="52"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="10">
+    <row r="33" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="33"/>
+      <c r="B33" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="7">
         <v>29</v>
       </c>
-      <c r="D33" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
+      <c r="D33" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="O33" s="4"/>
     </row>
     <row r="34" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="B34" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="5">
+      <c r="A34" s="33"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="7">
         <v>30</v>
       </c>
-      <c r="D34" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
+      <c r="D34" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
       <c r="J34" s="2"/>
-      <c r="K34" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="K34" s="2"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
+      <c r="N34" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="O34" s="4"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="44"/>
-      <c r="B35" s="45"/>
-      <c r="C35" s="5">
+    <row r="35" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="27">
         <v>31</v>
       </c>
-      <c r="D35" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K35" s="2"/>
+      <c r="D35" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
       <c r="O35" s="4"/>
     </row>
     <row r="36" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="44"/>
-      <c r="B36" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="10">
+      <c r="A36" s="13"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="1">
         <v>32</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="E36" s="14"/>
       <c r="F36" s="14"/>
       <c r="G36" s="14"/>
       <c r="H36" s="14"/>
       <c r="I36" s="14"/>
-      <c r="J36" s="2"/>
+      <c r="J36" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="K36" s="2"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
-      <c r="N36" s="3" t="s">
-        <v>89</v>
-      </c>
+      <c r="N36" s="3"/>
       <c r="O36" s="4"/>
     </row>
-    <row r="37" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="B37" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="5">
+    <row r="37" spans="1:15" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A37" s="13"/>
+      <c r="B37" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="7">
         <v>33</v>
       </c>
-      <c r="D37" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27"/>
+      <c r="D37" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
       <c r="J37" s="2"/>
-      <c r="K37" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="K37" s="2"/>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
+      <c r="N37" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="O37" s="4"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="49"/>
-      <c r="B38" s="54"/>
-      <c r="C38" s="5">
+    <row r="38" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="27">
         <v>34</v>
       </c>
-      <c r="D38" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K38" s="2"/>
+      <c r="D38" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
       <c r="O38" s="4"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="49"/>
-      <c r="B39" s="54"/>
-      <c r="C39" s="5">
+    <row r="39" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="10"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="1">
         <v>35</v>
       </c>
-      <c r="D39" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="27"/>
+      <c r="D39" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
       <c r="J39" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="3"/>
@@ -1918,21 +1803,21 @@
       <c r="O39" s="4"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="49"/>
-      <c r="B40" s="54"/>
-      <c r="C40" s="5">
+      <c r="A40" s="10"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="27">
         <v>36</v>
       </c>
-      <c r="D40" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="27"/>
+      <c r="D40" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
       <c r="J40" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K40" s="2"/>
       <c r="L40" s="3"/>
@@ -1940,120 +1825,120 @@
       <c r="N40" s="3"/>
       <c r="O40" s="4"/>
     </row>
-    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="49"/>
-      <c r="B41" s="55"/>
-      <c r="C41" s="5">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="10"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="1">
         <v>37</v>
       </c>
-      <c r="D41" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="2"/>
+      <c r="D41" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="K41" s="2"/>
-      <c r="L41" s="3" t="s">
-        <v>38</v>
-      </c>
+      <c r="L41" s="3"/>
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
       <c r="O41" s="4"/>
     </row>
-    <row r="42" spans="1:15" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A42" s="49"/>
-      <c r="B42" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C42" s="10">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="10"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="5">
         <v>38</v>
       </c>
-      <c r="D42" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="26"/>
+      <c r="D42" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
-      <c r="L42" s="3"/>
+      <c r="L42" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="M42" s="3"/>
-      <c r="N42" s="3" t="s">
-        <v>79</v>
-      </c>
+      <c r="N42" s="3"/>
       <c r="O42" s="4"/>
     </row>
-    <row r="43" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B43" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43" s="5">
+    <row r="43" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="10"/>
+      <c r="B43" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="7">
         <v>39</v>
       </c>
-      <c r="D43" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
+      <c r="D43" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
-      <c r="L43" s="3" t="s">
-        <v>80</v>
-      </c>
+      <c r="L43" s="3"/>
       <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
+      <c r="N43" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="O43" s="4"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="13"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="5">
+    <row r="44" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B44" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="1">
         <v>40</v>
       </c>
-      <c r="D44" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="D44" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="2"/>
       <c r="K44" s="2"/>
-      <c r="L44" s="3"/>
+      <c r="L44" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
       <c r="O44" s="4"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="13"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="5">
+    <row r="45" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="25"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="27">
         <v>41</v>
       </c>
-      <c r="D45" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
+      <c r="D45" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="24"/>
       <c r="J45" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K45" s="2"/>
       <c r="L45" s="3"/>
@@ -2061,75 +1946,74 @@
       <c r="N45" s="3"/>
       <c r="O45" s="4"/>
     </row>
-    <row r="46" spans="1:15" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A46" s="13"/>
-      <c r="B46" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C46" s="10">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" s="25"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="1">
         <v>42</v>
       </c>
-      <c r="D46" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="14"/>
-      <c r="J46" s="2"/>
+      <c r="D46" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
+      <c r="J46" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="K46" s="2"/>
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
-      <c r="N46" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="N46" s="3"/>
       <c r="O46" s="4"/>
     </row>
+    <row r="47" spans="1:15" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A47" s="25"/>
+      <c r="B47" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="36">
+        <v>43</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="O47" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="74">
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="D17:I17"/>
-    <mergeCell ref="D24:I24"/>
-    <mergeCell ref="D20:I20"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="D15:I15"/>
-    <mergeCell ref="D16:I16"/>
-    <mergeCell ref="A37:A42"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="B37:B41"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="B23:B25"/>
+  <mergeCells count="75">
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="D46:I46"/>
+    <mergeCell ref="D44:I44"/>
+    <mergeCell ref="D45:I45"/>
+    <mergeCell ref="D47:I47"/>
+    <mergeCell ref="A11:A20"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="D43:I43"/>
     <mergeCell ref="D27:I27"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="D34:I34"/>
-    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="D29:I29"/>
     <mergeCell ref="D30:I30"/>
-    <mergeCell ref="D33:I33"/>
     <mergeCell ref="D32:I32"/>
-    <mergeCell ref="D21:I21"/>
-    <mergeCell ref="D22:I22"/>
-    <mergeCell ref="D23:I23"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="D25:I25"/>
     <mergeCell ref="D41:I41"/>
-    <mergeCell ref="D35:I35"/>
-    <mergeCell ref="D36:I36"/>
-    <mergeCell ref="D37:I37"/>
-    <mergeCell ref="D38:I38"/>
-    <mergeCell ref="D39:I39"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="D12:I12"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="D8:I8"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="A5:A10"/>
     <mergeCell ref="O1:O2"/>
@@ -2146,22 +2030,47 @@
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="D6:I6"/>
     <mergeCell ref="D7:I7"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="D45:I45"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="D43:I43"/>
-    <mergeCell ref="D44:I44"/>
-    <mergeCell ref="D46:I46"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="A11:A18"/>
-    <mergeCell ref="A19:A25"/>
-    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="D12:I12"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="D8:I8"/>
     <mergeCell ref="D42:I42"/>
+    <mergeCell ref="D36:I36"/>
+    <mergeCell ref="D37:I37"/>
+    <mergeCell ref="D38:I38"/>
+    <mergeCell ref="D39:I39"/>
+    <mergeCell ref="D40:I40"/>
+    <mergeCell ref="D28:I28"/>
+    <mergeCell ref="D35:I35"/>
+    <mergeCell ref="D31:I31"/>
+    <mergeCell ref="D34:I34"/>
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A38:A43"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="D17:I17"/>
+    <mergeCell ref="D22:I22"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="D15:I15"/>
+    <mergeCell ref="D16:I16"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="D23:I23"/>
+    <mergeCell ref="D24:I24"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="D21:I21"/>
     <mergeCell ref="D26:I26"/>
-    <mergeCell ref="D28:I28"/>
-    <mergeCell ref="D29:I29"/>
-    <mergeCell ref="D31:I31"/>
-    <mergeCell ref="D40:I40"/>
+    <mergeCell ref="D18:I18"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Artefatos/17. Análise dos Eventos para cada Cenário.xlsx
+++ b/Artefatos/17. Análise dos Eventos para cada Cenário.xlsx
@@ -173,9 +173,6 @@
     <t xml:space="preserve">Setor de Atendimento Recebe ordem de serviço finalizada </t>
   </si>
   <si>
-    <t>Setor de Atendimento não recebe a ordem de serviço</t>
-  </si>
-  <si>
     <t>Setor de Serviço solicita compra de materiais</t>
   </si>
   <si>
@@ -297,6 +294,9 @@
   </si>
   <si>
     <t>x(42)</t>
+  </si>
+  <si>
+    <t>Setor de Atendimento não recebe a ordem de serviço finalizada</t>
   </si>
 </sst>
 </file>
@@ -496,92 +496,92 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -870,8 +870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33:I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -886,95 +886,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22" t="s">
+      <c r="K1" s="27"/>
+      <c r="L1" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="19"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="23"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="20"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="24"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22" t="s">
+      <c r="B3" s="27"/>
+      <c r="C3" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="22" t="s">
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="30" t="s">
+      <c r="K3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="22" t="s">
+      <c r="L3" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="22" t="s">
+      <c r="M3" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="30" t="s">
+      <c r="N3" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="30" t="s">
+      <c r="O3" s="25" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
     </row>
     <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="26" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
+      <c r="D5" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2" t="s">
         <v>14</v>
@@ -985,19 +985,19 @@
       <c r="O5" s="4"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="21"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="26"/>
       <c r="C6" s="1">
         <v>2</v>
       </c>
-      <c r="D6" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
+      <c r="D6" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="3" t="s">
@@ -1008,19 +1008,19 @@
       <c r="O6" s="4"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
-      <c r="B7" s="21"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="26"/>
       <c r="C7" s="1">
         <v>3</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
       <c r="J7" s="2" t="s">
         <v>16</v>
       </c>
@@ -1031,19 +1031,19 @@
       <c r="O7" s="4"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
-      <c r="B8" s="21"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="26"/>
       <c r="C8" s="1">
         <v>4</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
       <c r="J8" s="2" t="s">
         <v>17</v>
       </c>
@@ -1054,21 +1054,21 @@
       <c r="O8" s="4"/>
     </row>
     <row r="9" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
-      <c r="B9" s="15" t="s">
+      <c r="A9" s="22"/>
+      <c r="B9" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="7">
         <v>5</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
+      <c r="D9" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="3"/>
@@ -1079,19 +1079,19 @@
       <c r="O9" s="4"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="15"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="7">
         <v>6</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="3"/>
@@ -1102,23 +1102,23 @@
       <c r="O10" s="4"/>
     </row>
     <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="16" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="1">
         <v>7</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
       <c r="J11" s="2" t="s">
         <v>16</v>
       </c>
@@ -1129,19 +1129,19 @@
       <c r="O11" s="4"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
-      <c r="B12" s="11"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="16"/>
       <c r="C12" s="1">
         <v>8</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="3" t="s">
@@ -1152,19 +1152,19 @@
       <c r="O12" s="4"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="31"/>
-      <c r="B13" s="11"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="16"/>
       <c r="C13" s="1">
         <v>9</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
       <c r="J13" s="2" t="s">
         <v>21</v>
       </c>
@@ -1175,19 +1175,19 @@
       <c r="O13" s="4"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="31"/>
-      <c r="B14" s="11"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="16"/>
       <c r="C14" s="1">
         <v>10</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="3" t="s">
@@ -1198,19 +1198,19 @@
       <c r="O14" s="4"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
-      <c r="B15" s="11"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="16"/>
       <c r="C15" s="1">
         <v>11</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
+      <c r="D15" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
       <c r="J15" s="2" t="s">
         <v>22</v>
       </c>
@@ -1221,19 +1221,19 @@
       <c r="O15" s="4"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
-      <c r="B16" s="11"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="16"/>
       <c r="C16" s="5">
         <v>12</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="3" t="s">
@@ -1244,21 +1244,21 @@
       <c r="O16" s="4"/>
     </row>
     <row r="17" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="31"/>
-      <c r="B17" s="15" t="s">
+      <c r="A17" s="20"/>
+      <c r="B17" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="7">
         <v>13</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="3"/>
@@ -1269,19 +1269,19 @@
       <c r="O17" s="4"/>
     </row>
     <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="31"/>
-      <c r="B18" s="15"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="13"/>
       <c r="C18" s="7">
         <v>14</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
+      <c r="D18" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="3"/>
@@ -1292,71 +1292,71 @@
       <c r="O18" s="4"/>
     </row>
     <row r="19" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="31"/>
-      <c r="B19" s="15"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="13"/>
       <c r="C19" s="7">
         <v>15</v>
       </c>
-      <c r="D19" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
+      <c r="D19" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O19" s="4"/>
     </row>
     <row r="20" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="31"/>
-      <c r="B20" s="15"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="13"/>
       <c r="C20" s="7">
         <v>16</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
+      <c r="D20" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O20" s="4"/>
     </row>
     <row r="21" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="16" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="1">
         <v>17</v>
       </c>
-      <c r="D21" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
+      <c r="D21" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
       <c r="J21" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K21" s="2"/>
       <c r="L21" s="3"/>
@@ -1365,19 +1365,19 @@
       <c r="O21" s="4"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="32"/>
-      <c r="B22" s="11"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="16"/>
       <c r="C22" s="5">
         <v>18</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
       <c r="J22" s="2" t="s">
         <v>45</v>
       </c>
@@ -1388,21 +1388,21 @@
       <c r="O22" s="4"/>
     </row>
     <row r="23" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="32"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="27">
+      <c r="A23" s="14"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="8">
         <v>19</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
       <c r="J23" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="3"/>
@@ -1411,21 +1411,21 @@
       <c r="O23" s="4"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="32"/>
-      <c r="B24" s="11"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="16"/>
       <c r="C24" s="1">
         <v>20</v>
       </c>
-      <c r="D24" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
+      <c r="D24" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
       <c r="J24" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="3"/>
@@ -1434,21 +1434,21 @@
       <c r="O24" s="4"/>
     </row>
     <row r="25" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="32"/>
-      <c r="B25" s="15" t="s">
+      <c r="A25" s="14"/>
+      <c r="B25" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C25" s="7">
         <v>21</v>
       </c>
-      <c r="D25" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
+      <c r="D25" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="3"/>
@@ -1459,46 +1459,46 @@
       <c r="O25" s="4"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="32"/>
-      <c r="B26" s="15"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="13"/>
       <c r="C26" s="7">
         <v>22</v>
       </c>
-      <c r="D26" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
+      <c r="D26" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O26" s="4"/>
     </row>
     <row r="27" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="16" t="s">
         <v>11</v>
       </c>
       <c r="C27" s="5">
         <v>23</v>
       </c>
-      <c r="D27" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
+      <c r="D27" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
       <c r="J27" s="2" t="s">
         <v>18</v>
       </c>
@@ -1509,21 +1509,21 @@
       <c r="O27" s="4"/>
     </row>
     <row r="28" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="27">
+      <c r="A28" s="15"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="8">
         <v>24</v>
       </c>
-      <c r="D28" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
+      <c r="D28" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
       <c r="J28" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="3"/>
@@ -1532,21 +1532,21 @@
       <c r="O28" s="4"/>
     </row>
     <row r="29" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
-      <c r="B29" s="11"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="16"/>
       <c r="C29" s="1">
         <v>25</v>
       </c>
-      <c r="D29" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
+      <c r="D29" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
       <c r="J29" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K29" s="2"/>
       <c r="L29" s="3"/>
@@ -1555,50 +1555,50 @@
       <c r="O29" s="4"/>
     </row>
     <row r="30" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
-      <c r="B30" s="29" t="s">
+      <c r="A30" s="15"/>
+      <c r="B30" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C30" s="7">
         <v>26</v>
       </c>
-      <c r="D30" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
+      <c r="D30" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O30" s="4"/>
     </row>
     <row r="31" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="33" t="s">
+      <c r="A31" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="32" t="s">
         <v>11</v>
       </c>
       <c r="C31" s="1">
         <v>27</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
       <c r="J31" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K31" s="2"/>
       <c r="L31" s="3"/>
@@ -1607,21 +1607,21 @@
       <c r="O31" s="4"/>
     </row>
     <row r="32" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="33"/>
-      <c r="B32" s="28"/>
+      <c r="A32" s="30"/>
+      <c r="B32" s="32"/>
       <c r="C32" s="5">
         <v>28</v>
       </c>
-      <c r="D32" s="14" t="s">
+      <c r="D32" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
       <c r="J32" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K32" s="2"/>
       <c r="L32" s="3"/>
@@ -1630,71 +1630,71 @@
       <c r="O32" s="4"/>
     </row>
     <row r="33" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="33"/>
-      <c r="B33" s="15" t="s">
+      <c r="A33" s="30"/>
+      <c r="B33" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C33" s="7">
         <v>29</v>
       </c>
-      <c r="D33" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
+      <c r="D33" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O33" s="4"/>
     </row>
     <row r="34" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="33"/>
-      <c r="B34" s="15"/>
+      <c r="A34" s="30"/>
+      <c r="B34" s="13"/>
       <c r="C34" s="7">
         <v>30</v>
       </c>
-      <c r="D34" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
+      <c r="D34" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O34" s="4"/>
     </row>
     <row r="35" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B35" s="11" t="s">
+      <c r="A35" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="27">
+      <c r="C35" s="8">
         <v>31</v>
       </c>
-      <c r="D35" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
+      <c r="D35" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2" t="s">
         <v>14</v>
@@ -1705,21 +1705,21 @@
       <c r="O35" s="4"/>
     </row>
     <row r="36" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="13"/>
-      <c r="B36" s="11"/>
+      <c r="A36" s="31"/>
+      <c r="B36" s="16"/>
       <c r="C36" s="1">
         <v>32</v>
       </c>
-      <c r="D36" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
+      <c r="D36" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
       <c r="J36" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K36" s="2"/>
       <c r="L36" s="3"/>
@@ -1728,48 +1728,48 @@
       <c r="O36" s="4"/>
     </row>
     <row r="37" spans="1:15" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A37" s="13"/>
-      <c r="B37" s="29" t="s">
+      <c r="A37" s="31"/>
+      <c r="B37" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C37" s="7">
         <v>33</v>
       </c>
-      <c r="D37" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
+      <c r="D37" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
       <c r="N37" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O37" s="4"/>
     </row>
     <row r="38" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B38" s="34" t="s">
+      <c r="B38" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C38" s="27">
+      <c r="C38" s="8">
         <v>34</v>
       </c>
-      <c r="D38" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
+      <c r="D38" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2" t="s">
         <v>14</v>
@@ -1780,19 +1780,19 @@
       <c r="O38" s="4"/>
     </row>
     <row r="39" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="10"/>
-      <c r="B39" s="34"/>
+      <c r="A39" s="33"/>
+      <c r="B39" s="35"/>
       <c r="C39" s="1">
         <v>35</v>
       </c>
-      <c r="D39" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
+      <c r="D39" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
       <c r="J39" s="2" t="s">
         <v>31</v>
       </c>
@@ -1803,19 +1803,19 @@
       <c r="O39" s="4"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="10"/>
-      <c r="B40" s="34"/>
-      <c r="C40" s="27">
+      <c r="A40" s="33"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="8">
         <v>36</v>
       </c>
-      <c r="D40" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
+      <c r="D40" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
       <c r="J40" s="2" t="s">
         <v>32</v>
       </c>
@@ -1826,19 +1826,19 @@
       <c r="O40" s="4"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="10"/>
-      <c r="B41" s="34"/>
+      <c r="A41" s="33"/>
+      <c r="B41" s="35"/>
       <c r="C41" s="1">
         <v>37</v>
       </c>
-      <c r="D41" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
+      <c r="D41" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
       <c r="J41" s="2" t="s">
         <v>33</v>
       </c>
@@ -1849,94 +1849,94 @@
       <c r="O41" s="4"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="10"/>
-      <c r="B42" s="34"/>
+      <c r="A42" s="33"/>
+      <c r="B42" s="35"/>
       <c r="C42" s="5">
         <v>38</v>
       </c>
-      <c r="D42" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
+      <c r="D42" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="21"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
       <c r="L42" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
       <c r="O42" s="4"/>
     </row>
     <row r="43" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="10"/>
-      <c r="B43" s="35" t="s">
+      <c r="A43" s="33"/>
+      <c r="B43" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C43" s="7">
         <v>39</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D43" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
       <c r="N43" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O43" s="4"/>
     </row>
     <row r="44" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="25" t="s">
+      <c r="A44" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="B44" s="34" t="s">
+      <c r="B44" s="35" t="s">
         <v>11</v>
       </c>
       <c r="C44" s="1">
         <v>40</v>
       </c>
-      <c r="D44" s="24" t="s">
+      <c r="D44" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="24"/>
-      <c r="I44" s="24"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="18"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
       <c r="L44" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
       <c r="O44" s="4"/>
     </row>
     <row r="45" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="25"/>
-      <c r="B45" s="34"/>
-      <c r="C45" s="27">
+      <c r="A45" s="34"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="8">
         <v>41</v>
       </c>
-      <c r="D45" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="24"/>
+      <c r="D45" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
       <c r="J45" s="2" t="s">
         <v>29</v>
       </c>
@@ -1947,19 +1947,19 @@
       <c r="O45" s="4"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" s="25"/>
-      <c r="B46" s="34"/>
+      <c r="A46" s="34"/>
+      <c r="B46" s="35"/>
       <c r="C46" s="1">
         <v>42</v>
       </c>
-      <c r="D46" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="24"/>
+      <c r="D46" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="18"/>
       <c r="J46" s="2" t="s">
         <v>34</v>
       </c>
@@ -1970,50 +1970,66 @@
       <c r="O46" s="4"/>
     </row>
     <row r="47" spans="1:15" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A47" s="25"/>
+      <c r="A47" s="34"/>
       <c r="B47" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C47" s="36">
+      <c r="C47" s="11">
         <v>43</v>
       </c>
-      <c r="D47" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
+      <c r="D47" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
       <c r="N47" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O47" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="D46:I46"/>
-    <mergeCell ref="D44:I44"/>
-    <mergeCell ref="D45:I45"/>
-    <mergeCell ref="D47:I47"/>
-    <mergeCell ref="A11:A20"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="D43:I43"/>
-    <mergeCell ref="D27:I27"/>
-    <mergeCell ref="D29:I29"/>
-    <mergeCell ref="D30:I30"/>
-    <mergeCell ref="D32:I32"/>
-    <mergeCell ref="D41:I41"/>
+    <mergeCell ref="A38:A43"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="D17:I17"/>
+    <mergeCell ref="D22:I22"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="D15:I15"/>
+    <mergeCell ref="D16:I16"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="D23:I23"/>
+    <mergeCell ref="D24:I24"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="D40:I40"/>
+    <mergeCell ref="D28:I28"/>
+    <mergeCell ref="D35:I35"/>
+    <mergeCell ref="D31:I31"/>
+    <mergeCell ref="D34:I34"/>
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="D12:I12"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="D8:I8"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="A5:A10"/>
     <mergeCell ref="O1:O2"/>
@@ -2030,45 +2046,29 @@
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="D6:I6"/>
     <mergeCell ref="D7:I7"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="D12:I12"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="D46:I46"/>
+    <mergeCell ref="D44:I44"/>
+    <mergeCell ref="D45:I45"/>
+    <mergeCell ref="D47:I47"/>
+    <mergeCell ref="D43:I43"/>
+    <mergeCell ref="D27:I27"/>
+    <mergeCell ref="D29:I29"/>
+    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="D32:I32"/>
+    <mergeCell ref="D41:I41"/>
     <mergeCell ref="D42:I42"/>
     <mergeCell ref="D36:I36"/>
     <mergeCell ref="D37:I37"/>
     <mergeCell ref="D38:I38"/>
     <mergeCell ref="D39:I39"/>
-    <mergeCell ref="D40:I40"/>
-    <mergeCell ref="D28:I28"/>
-    <mergeCell ref="D35:I35"/>
-    <mergeCell ref="D31:I31"/>
-    <mergeCell ref="D34:I34"/>
-    <mergeCell ref="D33:I33"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A38:A43"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="D17:I17"/>
-    <mergeCell ref="D22:I22"/>
-    <mergeCell ref="D20:I20"/>
-    <mergeCell ref="D15:I15"/>
-    <mergeCell ref="D16:I16"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="D23:I23"/>
-    <mergeCell ref="D24:I24"/>
-    <mergeCell ref="D25:I25"/>
-    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="A11:A20"/>
+    <mergeCell ref="B11:B16"/>
     <mergeCell ref="D26:I26"/>
     <mergeCell ref="D18:I18"/>
   </mergeCells>

--- a/Artefatos/17. Análise dos Eventos para cada Cenário.xlsx
+++ b/Artefatos/17. Análise dos Eventos para cada Cenário.xlsx
@@ -870,8 +870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33:I33"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
